--- a/downloads/nhisinventory.xlsx
+++ b/downloads/nhisinventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004E7968-CF3D-4504-80BA-9C9BF8C17BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E66A7-76B5-41AA-91F7-313DC4F8B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stocklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stocklist!$G$1:$G$3216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stocklist!$G$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3145,7 +3145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3160,7 +3160,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3502,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8681CA4-D105-4AE6-9BEC-EF5B3BEE5B68}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E427"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3563,10 +3562,10 @@
       <c r="F2" s="10">
         <v>10000</v>
       </c>
-      <c r="G2" s="9">
-        <v>160</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2">
+        <v>1600</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3589,10 +3588,10 @@
       <c r="F3" s="10">
         <v>10000</v>
       </c>
-      <c r="G3" s="9">
-        <v>200</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3615,10 +3614,10 @@
       <c r="F4" s="10">
         <v>10000</v>
       </c>
-      <c r="G4" s="9">
-        <v>7</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3641,10 +3640,10 @@
       <c r="F5" s="10">
         <v>10000</v>
       </c>
-      <c r="G5" s="9">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3667,10 +3666,10 @@
       <c r="F6" s="10">
         <v>10000</v>
       </c>
-      <c r="G6" s="9">
-        <v>20</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3693,10 +3692,10 @@
       <c r="F7" s="10">
         <v>10000</v>
       </c>
-      <c r="G7" s="9">
-        <v>84</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="G7">
+        <v>840</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3719,10 +3718,10 @@
       <c r="F8" s="10">
         <v>10000</v>
       </c>
-      <c r="G8" s="9">
-        <v>20</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3745,10 +3744,10 @@
       <c r="F9" s="10">
         <v>10000</v>
       </c>
-      <c r="G9" s="9">
-        <v>10</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3771,10 +3770,10 @@
       <c r="F10" s="10">
         <v>10000</v>
       </c>
-      <c r="G10" s="9">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3797,10 +3796,10 @@
       <c r="F11" s="10">
         <v>10000</v>
       </c>
-      <c r="G11" s="9">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3823,10 +3822,10 @@
       <c r="F12" s="10">
         <v>10000</v>
       </c>
-      <c r="G12" s="9">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3849,10 +3848,10 @@
       <c r="F13" s="10">
         <v>10000</v>
       </c>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3875,10 +3874,10 @@
       <c r="F14" s="10">
         <v>10000</v>
       </c>
-      <c r="G14" s="9">
-        <v>150</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="G14">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3901,10 +3900,10 @@
       <c r="F15" s="10">
         <v>10000</v>
       </c>
-      <c r="G15" s="9">
-        <v>5</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3927,10 +3926,10 @@
       <c r="F16" s="10">
         <v>10000</v>
       </c>
-      <c r="G16" s="9">
-        <v>20</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3953,10 +3952,10 @@
       <c r="F17" s="10">
         <v>10000</v>
       </c>
-      <c r="G17" s="9">
-        <v>40</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3979,10 +3978,10 @@
       <c r="F18" s="10">
         <v>10000</v>
       </c>
-      <c r="G18" s="9">
-        <v>48</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18">
+        <v>480</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4005,10 +4004,10 @@
       <c r="F19" s="10">
         <v>10000</v>
       </c>
-      <c r="G19" s="9">
-        <v>80</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="G19">
+        <v>800</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4031,10 +4030,10 @@
       <c r="F20" s="10">
         <v>10000</v>
       </c>
-      <c r="G20" s="9">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="G20">
+        <v>160</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4057,10 +4056,10 @@
       <c r="F21" s="10">
         <v>10000</v>
       </c>
-      <c r="G21" s="9">
-        <v>40</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="G21">
+        <v>400</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4083,10 +4082,10 @@
       <c r="F22" s="10">
         <v>10000</v>
       </c>
-      <c r="G22" s="9">
-        <v>64</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="G22">
+        <v>640</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4109,10 +4108,10 @@
       <c r="F23" s="10">
         <v>10000</v>
       </c>
-      <c r="G23" s="9">
-        <v>70</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="G23">
+        <v>700</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4135,10 +4134,10 @@
       <c r="F24" s="10">
         <v>10000</v>
       </c>
-      <c r="G24" s="12">
-        <v>2300</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="G24">
+        <v>23000</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4161,10 +4160,10 @@
       <c r="F25" s="10">
         <v>10000</v>
       </c>
-      <c r="G25" s="12">
-        <v>1800</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="G25">
+        <v>18000</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4187,10 +4186,10 @@
       <c r="F26" s="10">
         <v>10000</v>
       </c>
-      <c r="G26" s="9">
-        <v>250</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="G26">
+        <v>2500</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4213,10 +4212,10 @@
       <c r="F27" s="10">
         <v>10000</v>
       </c>
-      <c r="G27" s="9">
-        <v>70</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="G27">
+        <v>700</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4239,10 +4238,10 @@
       <c r="F28" s="10">
         <v>10000</v>
       </c>
-      <c r="G28" s="9">
-        <v>80</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="G28">
+        <v>800</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4265,10 +4264,10 @@
       <c r="F29" s="10">
         <v>10000</v>
       </c>
-      <c r="G29" s="9">
-        <v>37</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="G29">
+        <v>370</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4291,10 +4290,10 @@
       <c r="F30" s="10">
         <v>10000</v>
       </c>
-      <c r="G30" s="12">
-        <v>2500</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="G30">
+        <v>25000</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4317,10 +4316,10 @@
       <c r="F31" s="10">
         <v>10000</v>
       </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4343,10 +4342,10 @@
       <c r="F32" s="10">
         <v>10000</v>
       </c>
-      <c r="G32" s="9">
-        <v>15</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="G32">
+        <v>150</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4369,10 +4368,10 @@
       <c r="F33" s="10">
         <v>10000</v>
       </c>
-      <c r="G33" s="9">
-        <v>80</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="G33">
+        <v>800</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4395,10 +4394,10 @@
       <c r="F34" s="10">
         <v>10000</v>
       </c>
-      <c r="G34" s="9">
-        <v>40</v>
-      </c>
-      <c r="H34" s="13" t="s">
+      <c r="G34">
+        <v>400</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4421,10 +4420,10 @@
       <c r="F35" s="10">
         <v>10000</v>
       </c>
-      <c r="G35" s="9">
-        <v>10</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4447,10 +4446,10 @@
       <c r="F36" s="10">
         <v>10000</v>
       </c>
-      <c r="G36" s="9">
-        <v>10</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4473,10 +4472,10 @@
       <c r="F37" s="10">
         <v>10000</v>
       </c>
-      <c r="G37" s="9">
-        <v>200</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="G37">
+        <v>2000</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4499,10 +4498,10 @@
       <c r="F38" s="10">
         <v>10000</v>
       </c>
-      <c r="G38" s="9">
-        <v>100</v>
-      </c>
-      <c r="H38" s="13" t="s">
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4525,10 +4524,10 @@
       <c r="F39" s="10">
         <v>10000</v>
       </c>
-      <c r="G39" s="12">
-        <v>1500</v>
-      </c>
-      <c r="H39" s="13" t="s">
+      <c r="G39">
+        <v>15000</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4551,10 +4550,10 @@
       <c r="F40" s="10">
         <v>10000</v>
       </c>
-      <c r="G40" s="9">
-        <v>30</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="G40">
+        <v>300</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4577,10 +4576,10 @@
       <c r="F41" s="10">
         <v>10000</v>
       </c>
-      <c r="G41" s="9">
-        <v>50</v>
-      </c>
-      <c r="H41" s="13" t="s">
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4603,10 +4602,10 @@
       <c r="F42" s="10">
         <v>10000</v>
       </c>
-      <c r="G42" s="9">
-        <v>4</v>
-      </c>
-      <c r="H42" s="13" t="s">
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4629,10 +4628,10 @@
       <c r="F43" s="10">
         <v>10000</v>
       </c>
-      <c r="G43" s="9">
-        <v>30</v>
-      </c>
-      <c r="H43" s="13" t="s">
+      <c r="G43">
+        <v>300</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4655,10 +4654,10 @@
       <c r="F44" s="10">
         <v>10000</v>
       </c>
-      <c r="G44" s="9">
-        <v>70</v>
-      </c>
-      <c r="H44" s="13" t="s">
+      <c r="G44">
+        <v>700</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4681,10 +4680,10 @@
       <c r="F45" s="10">
         <v>10000</v>
       </c>
-      <c r="G45" s="9">
-        <v>50</v>
-      </c>
-      <c r="H45" s="13" t="s">
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4707,10 +4706,10 @@
       <c r="F46" s="10">
         <v>10000</v>
       </c>
-      <c r="G46" s="9">
-        <v>134</v>
-      </c>
-      <c r="H46" s="13" t="s">
+      <c r="G46">
+        <v>1340</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4733,10 +4732,10 @@
       <c r="F47" s="10">
         <v>10000</v>
       </c>
-      <c r="G47" s="9">
-        <v>83</v>
-      </c>
-      <c r="H47" s="13" t="s">
+      <c r="G47">
+        <v>830</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4759,10 +4758,10 @@
       <c r="F48" s="10">
         <v>10000</v>
       </c>
-      <c r="G48" s="9">
-        <v>50</v>
-      </c>
-      <c r="H48" s="13" t="s">
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4785,10 +4784,10 @@
       <c r="F49" s="10">
         <v>10000</v>
       </c>
-      <c r="G49" s="9">
-        <v>100</v>
-      </c>
-      <c r="H49" s="13" t="s">
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4811,10 +4810,10 @@
       <c r="F50" s="10">
         <v>10000</v>
       </c>
-      <c r="G50" s="9">
-        <v>90</v>
-      </c>
-      <c r="H50" s="13" t="s">
+      <c r="G50">
+        <v>900</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4837,10 +4836,10 @@
       <c r="F51" s="10">
         <v>10000</v>
       </c>
-      <c r="G51" s="9">
-        <v>20</v>
-      </c>
-      <c r="H51" s="13" t="s">
+      <c r="G51">
+        <v>200</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4863,10 +4862,10 @@
       <c r="F52" s="10">
         <v>10000</v>
       </c>
-      <c r="G52" s="9">
-        <v>17</v>
-      </c>
-      <c r="H52" s="13" t="s">
+      <c r="G52">
+        <v>170</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4889,10 +4888,10 @@
       <c r="F53" s="10">
         <v>10000</v>
       </c>
-      <c r="G53" s="9">
-        <v>185</v>
-      </c>
-      <c r="H53" s="13" t="s">
+      <c r="G53">
+        <v>1850</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4915,10 +4914,10 @@
       <c r="F54" s="10">
         <v>10000</v>
       </c>
-      <c r="G54" s="9">
-        <v>25</v>
-      </c>
-      <c r="H54" s="13" t="s">
+      <c r="G54">
+        <v>250</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4941,10 +4940,10 @@
       <c r="F55" s="10">
         <v>10000</v>
       </c>
-      <c r="G55" s="9">
-        <v>70</v>
-      </c>
-      <c r="H55" s="13" t="s">
+      <c r="G55">
+        <v>700</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4967,10 +4966,10 @@
       <c r="F56" s="10">
         <v>10000</v>
       </c>
-      <c r="G56" s="9">
-        <v>100</v>
-      </c>
-      <c r="H56" s="13" t="s">
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4993,10 +4992,10 @@
       <c r="F57" s="10">
         <v>10000</v>
       </c>
-      <c r="G57" s="9">
-        <v>110</v>
-      </c>
-      <c r="H57" s="13" t="s">
+      <c r="G57">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5019,10 +5018,10 @@
       <c r="F58" s="10">
         <v>10000</v>
       </c>
-      <c r="G58" s="9">
-        <v>350</v>
-      </c>
-      <c r="H58" s="13" t="s">
+      <c r="G58">
+        <v>3500</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5045,10 +5044,10 @@
       <c r="F59" s="10">
         <v>10000</v>
       </c>
-      <c r="G59" s="9">
-        <v>500</v>
-      </c>
-      <c r="H59" s="13" t="s">
+      <c r="G59">
+        <v>5000</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5071,10 +5070,10 @@
       <c r="F60" s="10">
         <v>10000</v>
       </c>
-      <c r="G60" s="9">
-        <v>61</v>
-      </c>
-      <c r="H60" s="13" t="s">
+      <c r="G60">
+        <v>610</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5097,10 +5096,10 @@
       <c r="F61" s="10">
         <v>10000</v>
       </c>
-      <c r="G61" s="9">
-        <v>61</v>
-      </c>
-      <c r="H61" s="13" t="s">
+      <c r="G61">
+        <v>610</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5123,10 +5122,10 @@
       <c r="F62" s="10">
         <v>10000</v>
       </c>
-      <c r="G62" s="9">
-        <v>70</v>
-      </c>
-      <c r="H62" s="13" t="s">
+      <c r="G62">
+        <v>700</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5149,10 +5148,10 @@
       <c r="F63" s="10">
         <v>10000</v>
       </c>
-      <c r="G63" s="9">
-        <v>56</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="G63">
+        <v>560</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5175,10 +5174,10 @@
       <c r="F64" s="10">
         <v>10000</v>
       </c>
-      <c r="G64" s="9">
-        <v>56</v>
-      </c>
-      <c r="H64" s="13" t="s">
+      <c r="G64">
+        <v>560</v>
+      </c>
+      <c r="H64" s="12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5201,10 +5200,10 @@
       <c r="F65" s="10">
         <v>10000</v>
       </c>
-      <c r="G65" s="9">
-        <v>56</v>
-      </c>
-      <c r="H65" s="13" t="s">
+      <c r="G65">
+        <v>560</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5227,10 +5226,10 @@
       <c r="F66" s="10">
         <v>10000</v>
       </c>
-      <c r="G66" s="9">
-        <v>56</v>
-      </c>
-      <c r="H66" s="13" t="s">
+      <c r="G66">
+        <v>560</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5253,10 +5252,10 @@
       <c r="F67" s="10">
         <v>10000</v>
       </c>
-      <c r="G67" s="9">
-        <v>56</v>
-      </c>
-      <c r="H67" s="13" t="s">
+      <c r="G67">
+        <v>560</v>
+      </c>
+      <c r="H67" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5279,10 +5278,10 @@
       <c r="F68" s="10">
         <v>10000</v>
       </c>
-      <c r="G68" s="9">
-        <v>70</v>
-      </c>
-      <c r="H68" s="13" t="s">
+      <c r="G68">
+        <v>700</v>
+      </c>
+      <c r="H68" s="12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5305,10 +5304,10 @@
       <c r="F69" s="10">
         <v>10000</v>
       </c>
-      <c r="G69" s="9">
-        <v>180</v>
-      </c>
-      <c r="H69" s="13" t="s">
+      <c r="G69">
+        <v>1800</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5331,10 +5330,10 @@
       <c r="F70" s="10">
         <v>10000</v>
       </c>
-      <c r="G70" s="9">
-        <v>25</v>
-      </c>
-      <c r="H70" s="13" t="s">
+      <c r="G70">
+        <v>250</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5357,10 +5356,10 @@
       <c r="F71" s="10">
         <v>10000</v>
       </c>
-      <c r="G71" s="9">
-        <v>10</v>
-      </c>
-      <c r="H71" s="13" t="s">
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71" s="12" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5383,10 +5382,10 @@
       <c r="F72" s="10">
         <v>10000</v>
       </c>
-      <c r="G72" s="9">
-        <v>20</v>
-      </c>
-      <c r="H72" s="13" t="s">
+      <c r="G72">
+        <v>200</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5409,10 +5408,10 @@
       <c r="F73" s="10">
         <v>10000</v>
       </c>
-      <c r="G73" s="9">
-        <v>10</v>
-      </c>
-      <c r="H73" s="13" t="s">
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5435,10 +5434,10 @@
       <c r="F74" s="10">
         <v>10000</v>
       </c>
-      <c r="G74" s="9">
-        <v>62</v>
-      </c>
-      <c r="H74" s="13" t="s">
+      <c r="G74">
+        <v>620</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5461,10 +5460,10 @@
       <c r="F75" s="10">
         <v>10000</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5487,10 +5486,10 @@
       <c r="F76" s="10">
         <v>10000</v>
       </c>
-      <c r="G76" s="9">
-        <v>50</v>
-      </c>
-      <c r="H76" s="13" t="s">
+      <c r="G76">
+        <v>500</v>
+      </c>
+      <c r="H76" s="12" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5513,10 +5512,10 @@
       <c r="F77" s="10">
         <v>10000</v>
       </c>
-      <c r="G77" s="9">
-        <v>180</v>
-      </c>
-      <c r="H77" s="13" t="s">
+      <c r="G77">
+        <v>1800</v>
+      </c>
+      <c r="H77" s="12" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5539,10 +5538,10 @@
       <c r="F78" s="10">
         <v>10000</v>
       </c>
-      <c r="G78" s="9">
-        <v>52</v>
-      </c>
-      <c r="H78" s="13" t="s">
+      <c r="G78">
+        <v>520</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5565,10 +5564,10 @@
       <c r="F79" s="10">
         <v>10000</v>
       </c>
-      <c r="G79" s="12">
-        <v>3900</v>
-      </c>
-      <c r="H79" s="13" t="s">
+      <c r="G79">
+        <v>39000</v>
+      </c>
+      <c r="H79" s="12" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5591,10 +5590,10 @@
       <c r="F80" s="10">
         <v>10000</v>
       </c>
-      <c r="G80" s="12">
-        <v>1000</v>
-      </c>
-      <c r="H80" s="13" t="s">
+      <c r="G80">
+        <v>10000</v>
+      </c>
+      <c r="H80" s="12" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5617,10 +5616,10 @@
       <c r="F81" s="10">
         <v>10000</v>
       </c>
-      <c r="G81" s="9">
-        <v>100</v>
-      </c>
-      <c r="H81" s="13" t="s">
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5643,10 +5642,10 @@
       <c r="F82" s="10">
         <v>10000</v>
       </c>
-      <c r="G82" s="9">
-        <v>100</v>
-      </c>
-      <c r="H82" s="13" t="s">
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="12" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5669,10 +5668,10 @@
       <c r="F83" s="10">
         <v>10000</v>
       </c>
-      <c r="G83" s="9">
-        <v>20</v>
-      </c>
-      <c r="H83" s="13" t="s">
+      <c r="G83">
+        <v>200</v>
+      </c>
+      <c r="H83" s="12" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5695,10 +5694,10 @@
       <c r="F84" s="10">
         <v>10000</v>
       </c>
-      <c r="G84" s="9">
-        <v>79</v>
-      </c>
-      <c r="H84" s="13" t="s">
+      <c r="G84">
+        <v>790</v>
+      </c>
+      <c r="H84" s="12" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5721,10 +5720,10 @@
       <c r="F85" s="10">
         <v>10000</v>
       </c>
-      <c r="G85" s="9">
-        <v>50</v>
-      </c>
-      <c r="H85" s="13" t="s">
+      <c r="G85">
+        <v>500</v>
+      </c>
+      <c r="H85" s="12" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5747,10 +5746,10 @@
       <c r="F86" s="10">
         <v>10000</v>
       </c>
-      <c r="G86" s="9">
-        <v>520</v>
-      </c>
-      <c r="H86" s="13" t="s">
+      <c r="G86">
+        <v>5200</v>
+      </c>
+      <c r="H86" s="12" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5773,10 +5772,10 @@
       <c r="F87" s="10">
         <v>10000</v>
       </c>
-      <c r="G87" s="9">
-        <v>40</v>
-      </c>
-      <c r="H87" s="13" t="s">
+      <c r="G87">
+        <v>400</v>
+      </c>
+      <c r="H87" s="12" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5799,10 +5798,10 @@
       <c r="F88" s="10">
         <v>10000</v>
       </c>
-      <c r="G88" s="9">
-        <v>60</v>
-      </c>
-      <c r="H88" s="13" t="s">
+      <c r="G88">
+        <v>600</v>
+      </c>
+      <c r="H88" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5825,10 +5824,10 @@
       <c r="F89" s="10">
         <v>10000</v>
       </c>
-      <c r="G89" s="9">
-        <v>70</v>
-      </c>
-      <c r="H89" s="13" t="s">
+      <c r="G89">
+        <v>700</v>
+      </c>
+      <c r="H89" s="12" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5851,10 +5850,10 @@
       <c r="F90" s="10">
         <v>10000</v>
       </c>
-      <c r="G90" s="9">
-        <v>45</v>
-      </c>
-      <c r="H90" s="13" t="s">
+      <c r="G90">
+        <v>450</v>
+      </c>
+      <c r="H90" s="12" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5877,10 +5876,10 @@
       <c r="F91" s="10">
         <v>10000</v>
       </c>
-      <c r="G91" s="9">
-        <v>20</v>
-      </c>
-      <c r="H91" s="13" t="s">
+      <c r="G91">
+        <v>200</v>
+      </c>
+      <c r="H91" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5903,10 +5902,10 @@
       <c r="F92" s="10">
         <v>10000</v>
       </c>
-      <c r="G92" s="9">
-        <v>10</v>
-      </c>
-      <c r="H92" s="13" t="s">
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5929,10 +5928,10 @@
       <c r="F93" s="10">
         <v>10000</v>
       </c>
-      <c r="G93" s="12">
-        <v>1450</v>
-      </c>
-      <c r="H93" s="13" t="s">
+      <c r="G93">
+        <v>14500</v>
+      </c>
+      <c r="H93" s="12" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5955,10 +5954,10 @@
       <c r="F94" s="10">
         <v>10000</v>
       </c>
-      <c r="G94" s="12">
-        <v>2750</v>
-      </c>
-      <c r="H94" s="13" t="s">
+      <c r="G94">
+        <v>27500</v>
+      </c>
+      <c r="H94" s="12" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5981,10 +5980,10 @@
       <c r="F95" s="10">
         <v>10000</v>
       </c>
-      <c r="G95" s="9">
-        <v>27</v>
-      </c>
-      <c r="H95" s="13" t="s">
+      <c r="G95">
+        <v>270</v>
+      </c>
+      <c r="H95" s="12" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6007,10 +6006,10 @@
       <c r="F96" s="10">
         <v>10000</v>
       </c>
-      <c r="G96" s="9">
-        <v>20</v>
-      </c>
-      <c r="H96" s="13" t="s">
+      <c r="G96">
+        <v>200</v>
+      </c>
+      <c r="H96" s="12" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6033,10 +6032,10 @@
       <c r="F97" s="10">
         <v>10000</v>
       </c>
-      <c r="G97" s="9">
-        <v>20</v>
-      </c>
-      <c r="H97" s="13" t="s">
+      <c r="G97">
+        <v>200</v>
+      </c>
+      <c r="H97" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6059,10 +6058,10 @@
       <c r="F98" s="10">
         <v>10000</v>
       </c>
-      <c r="G98" s="9">
-        <v>30</v>
-      </c>
-      <c r="H98" s="13" t="s">
+      <c r="G98">
+        <v>300</v>
+      </c>
+      <c r="H98" s="12" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6085,10 +6084,10 @@
       <c r="F99" s="10">
         <v>10000</v>
       </c>
-      <c r="G99" s="12">
-        <v>1300</v>
-      </c>
-      <c r="H99" s="13" t="s">
+      <c r="G99">
+        <v>13000</v>
+      </c>
+      <c r="H99" s="12" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6111,10 +6110,10 @@
       <c r="F100" s="10">
         <v>10000</v>
       </c>
-      <c r="G100" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H100" s="13" t="s">
+      <c r="G100">
+        <v>21000</v>
+      </c>
+      <c r="H100" s="12" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6137,10 +6136,10 @@
       <c r="F101" s="10">
         <v>10000</v>
       </c>
-      <c r="G101" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="G101">
+        <v>21000</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6163,10 +6162,10 @@
       <c r="F102" s="10">
         <v>10000</v>
       </c>
-      <c r="G102" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H102" s="13" t="s">
+      <c r="G102">
+        <v>21000</v>
+      </c>
+      <c r="H102" s="12" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6189,10 +6188,10 @@
       <c r="F103" s="10">
         <v>10000</v>
       </c>
-      <c r="G103" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H103" s="13" t="s">
+      <c r="G103">
+        <v>21000</v>
+      </c>
+      <c r="H103" s="12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6215,10 +6214,10 @@
       <c r="F104" s="10">
         <v>10000</v>
       </c>
-      <c r="G104" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H104" s="13" t="s">
+      <c r="G104">
+        <v>21000</v>
+      </c>
+      <c r="H104" s="12" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6241,10 +6240,10 @@
       <c r="F105" s="10">
         <v>10000</v>
       </c>
-      <c r="G105" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H105" s="13" t="s">
+      <c r="G105">
+        <v>21000</v>
+      </c>
+      <c r="H105" s="12" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6267,10 +6266,10 @@
       <c r="F106" s="10">
         <v>10000</v>
       </c>
-      <c r="G106" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H106" s="13" t="s">
+      <c r="G106">
+        <v>21000</v>
+      </c>
+      <c r="H106" s="12" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6293,10 +6292,10 @@
       <c r="F107" s="10">
         <v>10000</v>
       </c>
-      <c r="G107" s="12">
-        <v>2100</v>
-      </c>
-      <c r="H107" s="13" t="s">
+      <c r="G107">
+        <v>21000</v>
+      </c>
+      <c r="H107" s="12" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6319,10 +6318,10 @@
       <c r="F108" s="10">
         <v>10000</v>
       </c>
-      <c r="G108" s="12">
-        <v>4500</v>
-      </c>
-      <c r="H108" s="13" t="s">
+      <c r="G108">
+        <v>45000</v>
+      </c>
+      <c r="H108" s="12" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6345,10 +6344,10 @@
       <c r="F109" s="10">
         <v>10000</v>
       </c>
-      <c r="G109" s="9">
-        <v>900</v>
-      </c>
-      <c r="H109" s="13" t="s">
+      <c r="G109">
+        <v>9000</v>
+      </c>
+      <c r="H109" s="12" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6371,10 +6370,10 @@
       <c r="F110" s="10">
         <v>10000</v>
       </c>
-      <c r="G110" s="9">
-        <v>10</v>
-      </c>
-      <c r="H110" s="13" t="s">
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110" s="12" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6397,10 +6396,10 @@
       <c r="F111" s="10">
         <v>10000</v>
       </c>
-      <c r="G111" s="9">
-        <v>250</v>
-      </c>
-      <c r="H111" s="13" t="s">
+      <c r="G111">
+        <v>2500</v>
+      </c>
+      <c r="H111" s="12" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6423,10 +6422,10 @@
       <c r="F112" s="10">
         <v>10000</v>
       </c>
-      <c r="G112" s="9">
-        <v>53</v>
-      </c>
-      <c r="H112" s="13" t="s">
+      <c r="G112">
+        <v>530</v>
+      </c>
+      <c r="H112" s="12" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6449,10 +6448,10 @@
       <c r="F113" s="10">
         <v>10000</v>
       </c>
-      <c r="G113" s="9">
-        <v>88</v>
-      </c>
-      <c r="H113" s="13" t="s">
+      <c r="G113">
+        <v>880</v>
+      </c>
+      <c r="H113" s="12" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6475,10 +6474,10 @@
       <c r="F114" s="10">
         <v>10000</v>
       </c>
-      <c r="G114" s="9">
-        <v>50</v>
-      </c>
-      <c r="H114" s="13" t="s">
+      <c r="G114">
+        <v>500</v>
+      </c>
+      <c r="H114" s="12" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6501,10 +6500,10 @@
       <c r="F115" s="10">
         <v>10000</v>
       </c>
-      <c r="G115" s="9">
-        <v>74</v>
-      </c>
-      <c r="H115" s="13" t="s">
+      <c r="G115">
+        <v>740</v>
+      </c>
+      <c r="H115" s="12" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6527,10 +6526,10 @@
       <c r="F116" s="10">
         <v>10000</v>
       </c>
-      <c r="G116" s="9">
-        <v>40</v>
-      </c>
-      <c r="H116" s="13" t="s">
+      <c r="G116">
+        <v>400</v>
+      </c>
+      <c r="H116" s="12" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6553,10 +6552,10 @@
       <c r="F117" s="10">
         <v>10000</v>
       </c>
-      <c r="G117" s="9">
-        <v>96</v>
-      </c>
-      <c r="H117" s="13" t="s">
+      <c r="G117">
+        <v>960</v>
+      </c>
+      <c r="H117" s="12" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6579,10 +6578,10 @@
       <c r="F118" s="10">
         <v>10000</v>
       </c>
-      <c r="G118" s="9">
-        <v>150</v>
-      </c>
-      <c r="H118" s="13" t="s">
+      <c r="G118">
+        <v>1500</v>
+      </c>
+      <c r="H118" s="12" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6605,10 +6604,10 @@
       <c r="F119" s="10">
         <v>10000</v>
       </c>
-      <c r="G119" s="9">
-        <v>60</v>
-      </c>
-      <c r="H119" s="13" t="s">
+      <c r="G119">
+        <v>600</v>
+      </c>
+      <c r="H119" s="12" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6631,10 +6630,10 @@
       <c r="F120" s="10">
         <v>10000</v>
       </c>
-      <c r="G120" s="9">
-        <v>500</v>
-      </c>
-      <c r="H120" s="13" t="s">
+      <c r="G120">
+        <v>5000</v>
+      </c>
+      <c r="H120" s="12" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6657,10 +6656,10 @@
       <c r="F121" s="10">
         <v>10000</v>
       </c>
-      <c r="G121" s="9">
-        <v>90</v>
-      </c>
-      <c r="H121" s="13" t="s">
+      <c r="G121">
+        <v>900</v>
+      </c>
+      <c r="H121" s="12" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6683,10 +6682,10 @@
       <c r="F122" s="10">
         <v>10000</v>
       </c>
-      <c r="G122" s="9">
-        <v>80</v>
-      </c>
-      <c r="H122" s="13" t="s">
+      <c r="G122">
+        <v>800</v>
+      </c>
+      <c r="H122" s="12" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6709,10 +6708,10 @@
       <c r="F123" s="10">
         <v>10000</v>
       </c>
-      <c r="G123" s="9">
-        <v>110</v>
-      </c>
-      <c r="H123" s="13" t="s">
+      <c r="G123">
+        <v>1100</v>
+      </c>
+      <c r="H123" s="12" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6735,10 +6734,10 @@
       <c r="F124" s="10">
         <v>10000</v>
       </c>
-      <c r="G124" s="9">
-        <v>88</v>
-      </c>
-      <c r="H124" s="13" t="s">
+      <c r="G124">
+        <v>880</v>
+      </c>
+      <c r="H124" s="12" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6761,10 +6760,10 @@
       <c r="F125" s="10">
         <v>10000</v>
       </c>
-      <c r="G125" s="9">
-        <v>20</v>
-      </c>
-      <c r="H125" s="13" t="s">
+      <c r="G125">
+        <v>200</v>
+      </c>
+      <c r="H125" s="12" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6787,10 +6786,10 @@
       <c r="F126" s="10">
         <v>10000</v>
       </c>
-      <c r="G126" s="9">
-        <v>60</v>
-      </c>
-      <c r="H126" s="13" t="s">
+      <c r="G126">
+        <v>600</v>
+      </c>
+      <c r="H126" s="12" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6813,10 +6812,10 @@
       <c r="F127" s="10">
         <v>10000</v>
       </c>
-      <c r="G127" s="9">
-        <v>20</v>
-      </c>
-      <c r="H127" s="13" t="s">
+      <c r="G127">
+        <v>200</v>
+      </c>
+      <c r="H127" s="12" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6839,10 +6838,10 @@
       <c r="F128" s="10">
         <v>10000</v>
       </c>
-      <c r="G128" s="9">
-        <v>80</v>
-      </c>
-      <c r="H128" s="13" t="s">
+      <c r="G128">
+        <v>800</v>
+      </c>
+      <c r="H128" s="12" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6865,10 +6864,10 @@
       <c r="F129" s="10">
         <v>10000</v>
       </c>
-      <c r="G129" s="9">
-        <v>35</v>
-      </c>
-      <c r="H129" s="13" t="s">
+      <c r="G129">
+        <v>350</v>
+      </c>
+      <c r="H129" s="12" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6891,10 +6890,10 @@
       <c r="F130" s="10">
         <v>10000</v>
       </c>
-      <c r="G130" s="9">
-        <v>750</v>
-      </c>
-      <c r="H130" s="13" t="s">
+      <c r="G130">
+        <v>7500</v>
+      </c>
+      <c r="H130" s="12" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6917,10 +6916,10 @@
       <c r="F131" s="10">
         <v>10000</v>
       </c>
-      <c r="G131" s="9">
-        <v>110</v>
-      </c>
-      <c r="H131" s="13" t="s">
+      <c r="G131">
+        <v>1100</v>
+      </c>
+      <c r="H131" s="12" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6943,10 +6942,10 @@
       <c r="F132" s="10">
         <v>10000</v>
       </c>
-      <c r="G132" s="9">
-        <v>20</v>
-      </c>
-      <c r="H132" s="13" t="s">
+      <c r="G132">
+        <v>200</v>
+      </c>
+      <c r="H132" s="12" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6969,10 +6968,10 @@
       <c r="F133" s="10">
         <v>10000</v>
       </c>
-      <c r="G133" s="9">
-        <v>10</v>
-      </c>
-      <c r="H133" s="13" t="s">
+      <c r="G133">
+        <v>100</v>
+      </c>
+      <c r="H133" s="12" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6995,10 +6994,10 @@
       <c r="F134" s="10">
         <v>10000</v>
       </c>
-      <c r="G134" s="9">
-        <v>10</v>
-      </c>
-      <c r="H134" s="13" t="s">
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134" s="12" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7021,10 +7020,10 @@
       <c r="F135" s="10">
         <v>10000</v>
       </c>
-      <c r="G135" s="9">
-        <v>190</v>
-      </c>
-      <c r="H135" s="13" t="s">
+      <c r="G135">
+        <v>1900</v>
+      </c>
+      <c r="H135" s="12" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7047,10 +7046,10 @@
       <c r="F136" s="10">
         <v>10000</v>
       </c>
-      <c r="G136" s="9">
-        <v>20</v>
-      </c>
-      <c r="H136" s="13" t="s">
+      <c r="G136">
+        <v>200</v>
+      </c>
+      <c r="H136" s="12" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7073,10 +7072,10 @@
       <c r="F137" s="10">
         <v>10000</v>
       </c>
-      <c r="G137" s="9">
-        <v>100</v>
-      </c>
-      <c r="H137" s="13" t="s">
+      <c r="G137">
+        <v>1000</v>
+      </c>
+      <c r="H137" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7099,10 +7098,10 @@
       <c r="F138" s="10">
         <v>10000</v>
       </c>
-      <c r="G138" s="9">
-        <v>130</v>
-      </c>
-      <c r="H138" s="13" t="s">
+      <c r="G138">
+        <v>1300</v>
+      </c>
+      <c r="H138" s="12" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7125,10 +7124,10 @@
       <c r="F139" s="10">
         <v>10000</v>
       </c>
-      <c r="G139" s="9">
-        <v>10</v>
-      </c>
-      <c r="H139" s="13" t="s">
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139" s="12" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7151,10 +7150,10 @@
       <c r="F140" s="10">
         <v>10000</v>
       </c>
-      <c r="G140" s="9">
-        <v>10</v>
-      </c>
-      <c r="H140" s="13" t="s">
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140" s="12" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7177,10 +7176,10 @@
       <c r="F141" s="10">
         <v>10000</v>
       </c>
-      <c r="G141" s="9">
-        <v>45</v>
-      </c>
-      <c r="H141" s="13" t="s">
+      <c r="G141">
+        <v>450</v>
+      </c>
+      <c r="H141" s="12" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7203,10 +7202,10 @@
       <c r="F142" s="10">
         <v>10000</v>
       </c>
-      <c r="G142" s="9">
-        <v>15</v>
-      </c>
-      <c r="H142" s="13" t="s">
+      <c r="G142">
+        <v>150</v>
+      </c>
+      <c r="H142" s="12" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7229,10 +7228,10 @@
       <c r="F143" s="10">
         <v>10000</v>
       </c>
-      <c r="G143" s="9">
-        <v>50</v>
-      </c>
-      <c r="H143" s="13" t="s">
+      <c r="G143">
+        <v>500</v>
+      </c>
+      <c r="H143" s="12" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7255,10 +7254,10 @@
       <c r="F144" s="10">
         <v>10000</v>
       </c>
-      <c r="G144" s="9">
-        <v>10</v>
-      </c>
-      <c r="H144" s="13" t="s">
+      <c r="G144">
+        <v>100</v>
+      </c>
+      <c r="H144" s="12" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7281,10 +7280,10 @@
       <c r="F145" s="10">
         <v>10000</v>
       </c>
-      <c r="G145" s="9">
-        <v>10</v>
-      </c>
-      <c r="H145" s="13" t="s">
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145" s="12" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7307,10 +7306,10 @@
       <c r="F146" s="10">
         <v>10000</v>
       </c>
-      <c r="G146" s="9">
-        <v>650</v>
-      </c>
-      <c r="H146" s="13" t="s">
+      <c r="G146">
+        <v>6500</v>
+      </c>
+      <c r="H146" s="12" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7333,10 +7332,10 @@
       <c r="F147" s="10">
         <v>10000</v>
       </c>
-      <c r="G147" s="9">
-        <v>650</v>
-      </c>
-      <c r="H147" s="13" t="s">
+      <c r="G147">
+        <v>6500</v>
+      </c>
+      <c r="H147" s="12" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7359,10 +7358,10 @@
       <c r="F148" s="10">
         <v>10000</v>
       </c>
-      <c r="G148" s="12">
-        <v>1300</v>
-      </c>
-      <c r="H148" s="13" t="s">
+      <c r="G148">
+        <v>13000</v>
+      </c>
+      <c r="H148" s="12" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7385,10 +7384,10 @@
       <c r="F149" s="10">
         <v>10000</v>
       </c>
-      <c r="G149" s="9">
-        <v>20</v>
-      </c>
-      <c r="H149" s="13" t="s">
+      <c r="G149">
+        <v>200</v>
+      </c>
+      <c r="H149" s="12" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7411,10 +7410,10 @@
       <c r="F150" s="10">
         <v>10000</v>
       </c>
-      <c r="G150" s="9">
-        <v>40</v>
-      </c>
-      <c r="H150" s="13" t="s">
+      <c r="G150">
+        <v>400</v>
+      </c>
+      <c r="H150" s="12" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7437,10 +7436,10 @@
       <c r="F151" s="10">
         <v>10000</v>
       </c>
-      <c r="G151" s="9">
-        <v>12</v>
-      </c>
-      <c r="H151" s="13" t="s">
+      <c r="G151">
+        <v>120</v>
+      </c>
+      <c r="H151" s="12" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7463,10 +7462,10 @@
       <c r="F152" s="10">
         <v>10000</v>
       </c>
-      <c r="G152" s="9">
-        <v>15</v>
-      </c>
-      <c r="H152" s="13" t="s">
+      <c r="G152">
+        <v>150</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7489,10 +7488,10 @@
       <c r="F153" s="10">
         <v>10000</v>
       </c>
-      <c r="G153" s="9">
-        <v>160</v>
-      </c>
-      <c r="H153" s="13" t="s">
+      <c r="G153">
+        <v>1600</v>
+      </c>
+      <c r="H153" s="12" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7515,10 +7514,10 @@
       <c r="F154" s="10">
         <v>10000</v>
       </c>
-      <c r="G154" s="9">
-        <v>7</v>
-      </c>
-      <c r="H154" s="13" t="s">
+      <c r="G154">
+        <v>70</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7541,10 +7540,10 @@
       <c r="F155" s="10">
         <v>10000</v>
       </c>
-      <c r="G155" s="9">
-        <v>90</v>
-      </c>
-      <c r="H155" s="13" t="s">
+      <c r="G155">
+        <v>900</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7567,10 +7566,10 @@
       <c r="F156" s="10">
         <v>10000</v>
       </c>
-      <c r="G156" s="9">
-        <v>70</v>
-      </c>
-      <c r="H156" s="13" t="s">
+      <c r="G156">
+        <v>700</v>
+      </c>
+      <c r="H156" s="12" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7593,10 +7592,10 @@
       <c r="F157" s="10">
         <v>10000</v>
       </c>
-      <c r="G157" s="9">
-        <v>45</v>
-      </c>
-      <c r="H157" s="13" t="s">
+      <c r="G157">
+        <v>450</v>
+      </c>
+      <c r="H157" s="12" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7619,10 +7618,10 @@
       <c r="F158" s="10">
         <v>10000</v>
       </c>
-      <c r="G158" s="9">
-        <v>45</v>
-      </c>
-      <c r="H158" s="13" t="s">
+      <c r="G158">
+        <v>450</v>
+      </c>
+      <c r="H158" s="12" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7645,10 +7644,10 @@
       <c r="F159" s="10">
         <v>10000</v>
       </c>
-      <c r="G159" s="9">
-        <v>10</v>
-      </c>
-      <c r="H159" s="13" t="s">
+      <c r="G159">
+        <v>100</v>
+      </c>
+      <c r="H159" s="12" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7671,10 +7670,10 @@
       <c r="F160" s="10">
         <v>10000</v>
       </c>
-      <c r="G160" s="9">
-        <v>90</v>
-      </c>
-      <c r="H160" s="13" t="s">
+      <c r="G160">
+        <v>900</v>
+      </c>
+      <c r="H160" s="12" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7697,10 +7696,10 @@
       <c r="F161" s="10">
         <v>10000</v>
       </c>
-      <c r="G161" s="9">
-        <v>12</v>
-      </c>
-      <c r="H161" s="13" t="s">
+      <c r="G161">
+        <v>120</v>
+      </c>
+      <c r="H161" s="12" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7723,10 +7722,10 @@
       <c r="F162" s="10">
         <v>10000</v>
       </c>
-      <c r="G162" s="9">
-        <v>10</v>
-      </c>
-      <c r="H162" s="13" t="s">
+      <c r="G162">
+        <v>100</v>
+      </c>
+      <c r="H162" s="12" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7749,10 +7748,10 @@
       <c r="F163" s="10">
         <v>10000</v>
       </c>
-      <c r="G163" s="9">
-        <v>70</v>
-      </c>
-      <c r="H163" s="13" t="s">
+      <c r="G163">
+        <v>700</v>
+      </c>
+      <c r="H163" s="12" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7775,10 +7774,10 @@
       <c r="F164" s="10">
         <v>10000</v>
       </c>
-      <c r="G164" s="9">
-        <v>10</v>
-      </c>
-      <c r="H164" s="13" t="s">
+      <c r="G164">
+        <v>100</v>
+      </c>
+      <c r="H164" s="12" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7801,10 +7800,10 @@
       <c r="F165" s="10">
         <v>10000</v>
       </c>
-      <c r="G165" s="9">
-        <v>10</v>
-      </c>
-      <c r="H165" s="13" t="s">
+      <c r="G165">
+        <v>100</v>
+      </c>
+      <c r="H165" s="12" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7827,10 +7826,10 @@
       <c r="F166" s="10">
         <v>10000</v>
       </c>
-      <c r="G166" s="9">
-        <v>300</v>
-      </c>
-      <c r="H166" s="13" t="s">
+      <c r="G166">
+        <v>3000</v>
+      </c>
+      <c r="H166" s="12" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7853,10 +7852,10 @@
       <c r="F167" s="10">
         <v>10000</v>
       </c>
-      <c r="G167" s="9">
-        <v>30</v>
-      </c>
-      <c r="H167" s="13" t="s">
+      <c r="G167">
+        <v>300</v>
+      </c>
+      <c r="H167" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7879,10 +7878,10 @@
       <c r="F168" s="10">
         <v>10000</v>
       </c>
-      <c r="G168" s="9">
-        <v>30</v>
-      </c>
-      <c r="H168" s="13" t="s">
+      <c r="G168">
+        <v>300</v>
+      </c>
+      <c r="H168" s="12" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7905,10 +7904,10 @@
       <c r="F169" s="10">
         <v>10000</v>
       </c>
-      <c r="G169" s="9">
-        <v>50</v>
-      </c>
-      <c r="H169" s="13" t="s">
+      <c r="G169">
+        <v>500</v>
+      </c>
+      <c r="H169" s="12" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7931,10 +7930,10 @@
       <c r="F170" s="10">
         <v>10000</v>
       </c>
-      <c r="G170" s="9">
-        <v>142</v>
-      </c>
-      <c r="H170" s="13" t="s">
+      <c r="G170">
+        <v>1420</v>
+      </c>
+      <c r="H170" s="12" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7957,10 +7956,10 @@
       <c r="F171" s="10">
         <v>10000</v>
       </c>
-      <c r="G171" s="9">
-        <v>20</v>
-      </c>
-      <c r="H171" s="13" t="s">
+      <c r="G171">
+        <v>200</v>
+      </c>
+      <c r="H171" s="12" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7983,10 +7982,10 @@
       <c r="F172" s="10">
         <v>10000</v>
       </c>
-      <c r="G172" s="9">
-        <v>20</v>
-      </c>
-      <c r="H172" s="13" t="s">
+      <c r="G172">
+        <v>200</v>
+      </c>
+      <c r="H172" s="12" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8009,10 +8008,10 @@
       <c r="F173" s="10">
         <v>10000</v>
       </c>
-      <c r="G173" s="9">
-        <v>30</v>
-      </c>
-      <c r="H173" s="13" t="s">
+      <c r="G173">
+        <v>300</v>
+      </c>
+      <c r="H173" s="12" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8035,10 +8034,10 @@
       <c r="F174" s="10">
         <v>10000</v>
       </c>
-      <c r="G174" s="12">
-        <v>1740</v>
-      </c>
-      <c r="H174" s="13" t="s">
+      <c r="G174">
+        <v>17400</v>
+      </c>
+      <c r="H174" s="12" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8061,10 +8060,10 @@
       <c r="F175" s="10">
         <v>10000</v>
       </c>
-      <c r="G175" s="12">
-        <v>1500</v>
-      </c>
-      <c r="H175" s="13" t="s">
+      <c r="G175">
+        <v>15000</v>
+      </c>
+      <c r="H175" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8087,10 +8086,10 @@
       <c r="F176" s="10">
         <v>10000</v>
       </c>
-      <c r="G176" s="9">
-        <v>10</v>
-      </c>
-      <c r="H176" s="13" t="s">
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176" s="12" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8113,10 +8112,10 @@
       <c r="F177" s="10">
         <v>10000</v>
       </c>
-      <c r="G177" s="9">
-        <v>10</v>
-      </c>
-      <c r="H177" s="13" t="s">
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177" s="12" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8139,10 +8138,10 @@
       <c r="F178" s="10">
         <v>10000</v>
       </c>
-      <c r="G178" s="9">
-        <v>650</v>
-      </c>
-      <c r="H178" s="13" t="s">
+      <c r="G178">
+        <v>6500</v>
+      </c>
+      <c r="H178" s="12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8165,10 +8164,10 @@
       <c r="F179" s="10">
         <v>10000</v>
       </c>
-      <c r="G179" s="12">
-        <v>1300</v>
-      </c>
-      <c r="H179" s="13" t="s">
+      <c r="G179">
+        <v>13000</v>
+      </c>
+      <c r="H179" s="12" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8191,10 +8190,10 @@
       <c r="F180" s="10">
         <v>10000</v>
       </c>
-      <c r="G180" s="9">
-        <v>37</v>
-      </c>
-      <c r="H180" s="13" t="s">
+      <c r="G180">
+        <v>370</v>
+      </c>
+      <c r="H180" s="12" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8217,10 +8216,10 @@
       <c r="F181" s="10">
         <v>10000</v>
       </c>
-      <c r="G181" s="9">
-        <v>152</v>
-      </c>
-      <c r="H181" s="13" t="s">
+      <c r="G181">
+        <v>1520</v>
+      </c>
+      <c r="H181" s="12" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8243,10 +8242,10 @@
       <c r="F182" s="10">
         <v>10000</v>
       </c>
-      <c r="G182" s="9">
-        <v>40</v>
-      </c>
-      <c r="H182" s="13" t="s">
+      <c r="G182">
+        <v>400</v>
+      </c>
+      <c r="H182" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8269,10 +8268,10 @@
       <c r="F183" s="10">
         <v>10000</v>
       </c>
-      <c r="G183" s="9">
-        <v>50</v>
-      </c>
-      <c r="H183" s="13" t="s">
+      <c r="G183">
+        <v>500</v>
+      </c>
+      <c r="H183" s="12" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8295,10 +8294,10 @@
       <c r="F184" s="10">
         <v>10000</v>
       </c>
-      <c r="G184" s="9">
-        <v>50</v>
-      </c>
-      <c r="H184" s="13" t="s">
+      <c r="G184">
+        <v>500</v>
+      </c>
+      <c r="H184" s="12" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8321,10 +8320,10 @@
       <c r="F185" s="10">
         <v>10000</v>
       </c>
-      <c r="G185" s="9">
-        <v>50</v>
-      </c>
-      <c r="H185" s="13" t="s">
+      <c r="G185">
+        <v>500</v>
+      </c>
+      <c r="H185" s="12" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8347,10 +8346,10 @@
       <c r="F186" s="10">
         <v>10000</v>
       </c>
-      <c r="G186" s="9">
-        <v>50</v>
-      </c>
-      <c r="H186" s="13" t="s">
+      <c r="G186">
+        <v>500</v>
+      </c>
+      <c r="H186" s="12" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8373,10 +8372,10 @@
       <c r="F187" s="10">
         <v>10000</v>
       </c>
-      <c r="G187" s="9">
-        <v>50</v>
-      </c>
-      <c r="H187" s="13" t="s">
+      <c r="G187">
+        <v>500</v>
+      </c>
+      <c r="H187" s="12" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8399,10 +8398,10 @@
       <c r="F188" s="10">
         <v>10000</v>
       </c>
-      <c r="G188" s="9">
-        <v>50</v>
-      </c>
-      <c r="H188" s="13" t="s">
+      <c r="G188">
+        <v>500</v>
+      </c>
+      <c r="H188" s="12" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8425,10 +8424,10 @@
       <c r="F189" s="10">
         <v>10000</v>
       </c>
-      <c r="G189" s="9">
-        <v>50</v>
-      </c>
-      <c r="H189" s="13" t="s">
+      <c r="G189">
+        <v>500</v>
+      </c>
+      <c r="H189" s="12" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8451,10 +8450,10 @@
       <c r="F190" s="10">
         <v>10000</v>
       </c>
-      <c r="G190" s="9">
-        <v>50</v>
-      </c>
-      <c r="H190" s="13" t="s">
+      <c r="G190">
+        <v>500</v>
+      </c>
+      <c r="H190" s="12" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8477,10 +8476,10 @@
       <c r="F191" s="10">
         <v>10000</v>
       </c>
-      <c r="G191" s="9">
-        <v>50</v>
-      </c>
-      <c r="H191" s="13" t="s">
+      <c r="G191">
+        <v>500</v>
+      </c>
+      <c r="H191" s="12" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8503,10 +8502,10 @@
       <c r="F192" s="10">
         <v>10000</v>
       </c>
-      <c r="G192" s="9">
-        <v>78</v>
-      </c>
-      <c r="H192" s="13" t="s">
+      <c r="G192">
+        <v>780</v>
+      </c>
+      <c r="H192" s="12" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8529,10 +8528,10 @@
       <c r="F193" s="10">
         <v>10000</v>
       </c>
-      <c r="G193" s="9">
-        <v>80</v>
-      </c>
-      <c r="H193" s="13" t="s">
+      <c r="G193">
+        <v>800</v>
+      </c>
+      <c r="H193" s="12" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8555,10 +8554,10 @@
       <c r="F194" s="10">
         <v>10000</v>
       </c>
-      <c r="G194" s="9">
-        <v>125</v>
-      </c>
-      <c r="H194" s="13" t="s">
+      <c r="G194">
+        <v>1250</v>
+      </c>
+      <c r="H194" s="12" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8581,10 +8580,10 @@
       <c r="F195" s="10">
         <v>10000</v>
       </c>
-      <c r="G195" s="9">
-        <v>65</v>
-      </c>
-      <c r="H195" s="13" t="s">
+      <c r="G195">
+        <v>650</v>
+      </c>
+      <c r="H195" s="12" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8607,10 +8606,10 @@
       <c r="F196" s="10">
         <v>10000</v>
       </c>
-      <c r="G196" s="9">
-        <v>70</v>
-      </c>
-      <c r="H196" s="13" t="s">
+      <c r="G196">
+        <v>700</v>
+      </c>
+      <c r="H196" s="12" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8633,10 +8632,10 @@
       <c r="F197" s="10">
         <v>10000</v>
       </c>
-      <c r="G197" s="9">
-        <v>230</v>
-      </c>
-      <c r="H197" s="13" t="s">
+      <c r="G197">
+        <v>2300</v>
+      </c>
+      <c r="H197" s="12" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8659,10 +8658,10 @@
       <c r="F198" s="10">
         <v>10000</v>
       </c>
-      <c r="G198" s="9">
-        <v>40</v>
-      </c>
-      <c r="H198" s="13" t="s">
+      <c r="G198">
+        <v>400</v>
+      </c>
+      <c r="H198" s="12" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8685,10 +8684,10 @@
       <c r="F199" s="10">
         <v>10000</v>
       </c>
-      <c r="G199" s="9">
-        <v>15</v>
-      </c>
-      <c r="H199" s="13" t="s">
+      <c r="G199">
+        <v>150</v>
+      </c>
+      <c r="H199" s="12" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8711,10 +8710,10 @@
       <c r="F200" s="10">
         <v>10000</v>
       </c>
-      <c r="G200" s="9">
-        <v>120</v>
-      </c>
-      <c r="H200" s="13" t="s">
+      <c r="G200">
+        <v>1200</v>
+      </c>
+      <c r="H200" s="12" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8737,10 +8736,10 @@
       <c r="F201" s="10">
         <v>10000</v>
       </c>
-      <c r="G201" s="9">
-        <v>93</v>
-      </c>
-      <c r="H201" s="13" t="s">
+      <c r="G201">
+        <v>930</v>
+      </c>
+      <c r="H201" s="12" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8763,10 +8762,10 @@
       <c r="F202" s="10">
         <v>10000</v>
       </c>
-      <c r="G202" s="9">
-        <v>120</v>
-      </c>
-      <c r="H202" s="13" t="s">
+      <c r="G202">
+        <v>1200</v>
+      </c>
+      <c r="H202" s="12" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8789,10 +8788,10 @@
       <c r="F203" s="10">
         <v>10000</v>
       </c>
-      <c r="G203" s="9">
-        <v>500</v>
-      </c>
-      <c r="H203" s="13" t="s">
+      <c r="G203">
+        <v>5000</v>
+      </c>
+      <c r="H203" s="12" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8815,10 +8814,10 @@
       <c r="F204" s="10">
         <v>10000</v>
       </c>
-      <c r="G204" s="9">
-        <v>350</v>
-      </c>
-      <c r="H204" s="13" t="s">
+      <c r="G204">
+        <v>3500</v>
+      </c>
+      <c r="H204" s="12" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8841,10 +8840,10 @@
       <c r="F205" s="10">
         <v>10000</v>
       </c>
-      <c r="G205" s="9">
-        <v>40</v>
-      </c>
-      <c r="H205" s="13" t="s">
+      <c r="G205">
+        <v>400</v>
+      </c>
+      <c r="H205" s="12" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8867,10 +8866,10 @@
       <c r="F206" s="10">
         <v>10000</v>
       </c>
-      <c r="G206" s="9">
-        <v>120</v>
-      </c>
-      <c r="H206" s="13" t="s">
+      <c r="G206">
+        <v>1200</v>
+      </c>
+      <c r="H206" s="12" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8893,10 +8892,10 @@
       <c r="F207" s="10">
         <v>10000</v>
       </c>
-      <c r="G207" s="9">
+      <c r="G207">
         <v>0</v>
       </c>
-      <c r="H207" s="13" t="s">
+      <c r="H207" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8919,10 +8918,10 @@
       <c r="F208" s="10">
         <v>10000</v>
       </c>
-      <c r="G208" s="9">
+      <c r="G208">
         <v>0</v>
       </c>
-      <c r="H208" s="13" t="s">
+      <c r="H208" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8945,10 +8944,10 @@
       <c r="F209" s="10">
         <v>10000</v>
       </c>
-      <c r="G209" s="9">
-        <v>20</v>
-      </c>
-      <c r="H209" s="13" t="s">
+      <c r="G209">
+        <v>200</v>
+      </c>
+      <c r="H209" s="12" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8971,10 +8970,10 @@
       <c r="F210" s="10">
         <v>10000</v>
       </c>
-      <c r="G210" s="9">
-        <v>20</v>
-      </c>
-      <c r="H210" s="13" t="s">
+      <c r="G210">
+        <v>200</v>
+      </c>
+      <c r="H210" s="12" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8997,10 +8996,10 @@
       <c r="F211" s="10">
         <v>10000</v>
       </c>
-      <c r="G211" s="9">
-        <v>20</v>
-      </c>
-      <c r="H211" s="13" t="s">
+      <c r="G211">
+        <v>200</v>
+      </c>
+      <c r="H211" s="12" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9023,10 +9022,10 @@
       <c r="F212" s="10">
         <v>10000</v>
       </c>
-      <c r="G212" s="9">
-        <v>20</v>
-      </c>
-      <c r="H212" s="13" t="s">
+      <c r="G212">
+        <v>200</v>
+      </c>
+      <c r="H212" s="12" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9049,10 +9048,10 @@
       <c r="F213" s="10">
         <v>10000</v>
       </c>
-      <c r="G213" s="9">
-        <v>20</v>
-      </c>
-      <c r="H213" s="13" t="s">
+      <c r="G213">
+        <v>200</v>
+      </c>
+      <c r="H213" s="12" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9075,10 +9074,10 @@
       <c r="F214" s="10">
         <v>10000</v>
       </c>
-      <c r="G214" s="9">
-        <v>106</v>
-      </c>
-      <c r="H214" s="13" t="s">
+      <c r="G214">
+        <v>1060</v>
+      </c>
+      <c r="H214" s="12" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9101,10 +9100,10 @@
       <c r="F215" s="10">
         <v>10000</v>
       </c>
-      <c r="G215" s="9">
-        <v>20</v>
-      </c>
-      <c r="H215" s="13" t="s">
+      <c r="G215">
+        <v>200</v>
+      </c>
+      <c r="H215" s="12" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9127,10 +9126,10 @@
       <c r="F216" s="10">
         <v>10000</v>
       </c>
-      <c r="G216" s="9">
-        <v>56</v>
-      </c>
-      <c r="H216" s="13" t="s">
+      <c r="G216">
+        <v>560</v>
+      </c>
+      <c r="H216" s="12" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9153,10 +9152,10 @@
       <c r="F217" s="10">
         <v>10000</v>
       </c>
-      <c r="G217" s="9">
-        <v>56</v>
-      </c>
-      <c r="H217" s="13" t="s">
+      <c r="G217">
+        <v>560</v>
+      </c>
+      <c r="H217" s="12" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9179,10 +9178,10 @@
       <c r="F218" s="10">
         <v>10000</v>
       </c>
-      <c r="G218" s="9">
-        <v>250</v>
-      </c>
-      <c r="H218" s="13" t="s">
+      <c r="G218">
+        <v>2500</v>
+      </c>
+      <c r="H218" s="12" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9205,10 +9204,10 @@
       <c r="F219" s="10">
         <v>10000</v>
       </c>
-      <c r="G219" s="9">
-        <v>70</v>
-      </c>
-      <c r="H219" s="13" t="s">
+      <c r="G219">
+        <v>700</v>
+      </c>
+      <c r="H219" s="12" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9231,10 +9230,10 @@
       <c r="F220" s="10">
         <v>10000</v>
       </c>
-      <c r="G220" s="9">
-        <v>150</v>
-      </c>
-      <c r="H220" s="13" t="s">
+      <c r="G220">
+        <v>1500</v>
+      </c>
+      <c r="H220" s="12" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9257,10 +9256,10 @@
       <c r="F221" s="10">
         <v>10000</v>
       </c>
-      <c r="G221" s="9">
-        <v>10</v>
-      </c>
-      <c r="H221" s="13" t="s">
+      <c r="G221">
+        <v>100</v>
+      </c>
+      <c r="H221" s="12" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9283,10 +9282,10 @@
       <c r="F222" s="10">
         <v>10000</v>
       </c>
-      <c r="G222" s="9">
-        <v>100</v>
-      </c>
-      <c r="H222" s="13" t="s">
+      <c r="G222">
+        <v>1000</v>
+      </c>
+      <c r="H222" s="12" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9309,10 +9308,10 @@
       <c r="F223" s="10">
         <v>10000</v>
       </c>
-      <c r="G223" s="9">
-        <v>50</v>
-      </c>
-      <c r="H223" s="13" t="s">
+      <c r="G223">
+        <v>500</v>
+      </c>
+      <c r="H223" s="12" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9335,10 +9334,10 @@
       <c r="F224" s="10">
         <v>10000</v>
       </c>
-      <c r="G224" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="H224" s="13" t="s">
+      <c r="G224">
+        <v>105</v>
+      </c>
+      <c r="H224" s="12" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9361,10 +9360,10 @@
       <c r="F225" s="10">
         <v>10000</v>
       </c>
-      <c r="G225" s="9">
-        <v>210</v>
-      </c>
-      <c r="H225" s="13" t="s">
+      <c r="G225">
+        <v>2100</v>
+      </c>
+      <c r="H225" s="12" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9387,10 +9386,10 @@
       <c r="F226" s="10">
         <v>10000</v>
       </c>
-      <c r="G226" s="9">
-        <v>10</v>
-      </c>
-      <c r="H226" s="13" t="s">
+      <c r="G226">
+        <v>100</v>
+      </c>
+      <c r="H226" s="12" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9413,10 +9412,10 @@
       <c r="F227" s="10">
         <v>10000</v>
       </c>
-      <c r="G227" s="9">
-        <v>10</v>
-      </c>
-      <c r="H227" s="13" t="s">
+      <c r="G227">
+        <v>100</v>
+      </c>
+      <c r="H227" s="12" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9439,10 +9438,10 @@
       <c r="F228" s="10">
         <v>10000</v>
       </c>
-      <c r="G228" s="9">
-        <v>110</v>
-      </c>
-      <c r="H228" s="13" t="s">
+      <c r="G228">
+        <v>1100</v>
+      </c>
+      <c r="H228" s="12" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9465,10 +9464,10 @@
       <c r="F229" s="10">
         <v>10000</v>
       </c>
-      <c r="G229" s="9">
-        <v>168</v>
-      </c>
-      <c r="H229" s="13" t="s">
+      <c r="G229">
+        <v>1680</v>
+      </c>
+      <c r="H229" s="12" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9491,10 +9490,10 @@
       <c r="F230" s="10">
         <v>10000</v>
       </c>
-      <c r="G230" s="9">
-        <v>300</v>
-      </c>
-      <c r="H230" s="13" t="s">
+      <c r="G230">
+        <v>3000</v>
+      </c>
+      <c r="H230" s="12" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9517,10 +9516,10 @@
       <c r="F231" s="10">
         <v>10000</v>
       </c>
-      <c r="G231" s="9">
-        <v>60</v>
-      </c>
-      <c r="H231" s="13" t="s">
+      <c r="G231">
+        <v>600</v>
+      </c>
+      <c r="H231" s="12" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9543,10 +9542,10 @@
       <c r="F232" s="10">
         <v>10000</v>
       </c>
-      <c r="G232" s="9">
-        <v>90</v>
-      </c>
-      <c r="H232" s="13" t="s">
+      <c r="G232">
+        <v>900</v>
+      </c>
+      <c r="H232" s="12" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9569,10 +9568,10 @@
       <c r="F233" s="10">
         <v>10000</v>
       </c>
-      <c r="G233" s="9">
-        <v>70</v>
-      </c>
-      <c r="H233" s="13" t="s">
+      <c r="G233">
+        <v>700</v>
+      </c>
+      <c r="H233" s="12" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9595,10 +9594,10 @@
       <c r="F234" s="10">
         <v>10000</v>
       </c>
-      <c r="G234" s="9">
-        <v>20</v>
-      </c>
-      <c r="H234" s="13" t="s">
+      <c r="G234">
+        <v>200</v>
+      </c>
+      <c r="H234" s="12" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9621,10 +9620,10 @@
       <c r="F235" s="10">
         <v>10000</v>
       </c>
-      <c r="G235" s="9">
-        <v>90</v>
-      </c>
-      <c r="H235" s="13" t="s">
+      <c r="G235">
+        <v>900</v>
+      </c>
+      <c r="H235" s="12" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9647,10 +9646,10 @@
       <c r="F236" s="10">
         <v>10000</v>
       </c>
-      <c r="G236" s="12">
-        <v>1500</v>
-      </c>
-      <c r="H236" s="13" t="s">
+      <c r="G236">
+        <v>15000</v>
+      </c>
+      <c r="H236" s="12" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9673,10 +9672,10 @@
       <c r="F237" s="10">
         <v>10000</v>
       </c>
-      <c r="G237" s="9">
-        <v>20</v>
-      </c>
-      <c r="H237" s="13" t="s">
+      <c r="G237">
+        <v>200</v>
+      </c>
+      <c r="H237" s="12" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9699,10 +9698,10 @@
       <c r="F238" s="10">
         <v>10000</v>
       </c>
-      <c r="G238" s="9">
-        <v>40</v>
-      </c>
-      <c r="H238" s="13" t="s">
+      <c r="G238">
+        <v>400</v>
+      </c>
+      <c r="H238" s="12" t="s">
         <v>409</v>
       </c>
     </row>
@@ -9725,10 +9724,10 @@
       <c r="F239" s="10">
         <v>10000</v>
       </c>
-      <c r="G239" s="9">
-        <v>110</v>
-      </c>
-      <c r="H239" s="13" t="s">
+      <c r="G239">
+        <v>1100</v>
+      </c>
+      <c r="H239" s="12" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9751,10 +9750,10 @@
       <c r="F240" s="10">
         <v>10000</v>
       </c>
-      <c r="G240" s="9">
-        <v>10</v>
-      </c>
-      <c r="H240" s="13" t="s">
+      <c r="G240">
+        <v>100</v>
+      </c>
+      <c r="H240" s="12" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9777,10 +9776,10 @@
       <c r="F241" s="10">
         <v>10000</v>
       </c>
-      <c r="G241" s="12">
-        <v>2200</v>
-      </c>
-      <c r="H241" s="13" t="s">
+      <c r="G241">
+        <v>22000</v>
+      </c>
+      <c r="H241" s="12" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9803,10 +9802,10 @@
       <c r="F242" s="10">
         <v>10000</v>
       </c>
-      <c r="G242" s="9">
-        <v>5</v>
-      </c>
-      <c r="H242" s="13" t="s">
+      <c r="G242">
+        <v>50</v>
+      </c>
+      <c r="H242" s="12" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9829,10 +9828,10 @@
       <c r="F243" s="10">
         <v>10000</v>
       </c>
-      <c r="G243" s="9">
-        <v>370</v>
-      </c>
-      <c r="H243" s="13" t="s">
+      <c r="G243">
+        <v>3700</v>
+      </c>
+      <c r="H243" s="12" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9855,10 +9854,10 @@
       <c r="F244" s="10">
         <v>10000</v>
       </c>
-      <c r="G244" s="9">
-        <v>30</v>
-      </c>
-      <c r="H244" s="13" t="s">
+      <c r="G244">
+        <v>300</v>
+      </c>
+      <c r="H244" s="12" t="s">
         <v>415</v>
       </c>
     </row>
@@ -9881,10 +9880,10 @@
       <c r="F245" s="10">
         <v>10000</v>
       </c>
-      <c r="G245" s="9">
-        <v>30</v>
-      </c>
-      <c r="H245" s="13" t="s">
+      <c r="G245">
+        <v>300</v>
+      </c>
+      <c r="H245" s="12" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9907,10 +9906,10 @@
       <c r="F246" s="10">
         <v>10000</v>
       </c>
-      <c r="G246" s="9">
-        <v>130</v>
-      </c>
-      <c r="H246" s="13" t="s">
+      <c r="G246">
+        <v>1300</v>
+      </c>
+      <c r="H246" s="12" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9933,10 +9932,10 @@
       <c r="F247" s="10">
         <v>10000</v>
       </c>
-      <c r="G247" s="9">
-        <v>200</v>
-      </c>
-      <c r="H247" s="13" t="s">
+      <c r="G247">
+        <v>2000</v>
+      </c>
+      <c r="H247" s="12" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9959,10 +9958,10 @@
       <c r="F248" s="10">
         <v>10000</v>
       </c>
-      <c r="G248" s="9">
-        <v>200</v>
-      </c>
-      <c r="H248" s="13" t="s">
+      <c r="G248">
+        <v>2000</v>
+      </c>
+      <c r="H248" s="12" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9985,10 +9984,10 @@
       <c r="F249" s="10">
         <v>10000</v>
       </c>
-      <c r="G249" s="9">
-        <v>220</v>
-      </c>
-      <c r="H249" s="13" t="s">
+      <c r="G249">
+        <v>2200</v>
+      </c>
+      <c r="H249" s="12" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10011,10 +10010,10 @@
       <c r="F250" s="10">
         <v>10000</v>
       </c>
-      <c r="G250" s="9">
-        <v>220</v>
-      </c>
-      <c r="H250" s="13" t="s">
+      <c r="G250">
+        <v>2200</v>
+      </c>
+      <c r="H250" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -10037,10 +10036,10 @@
       <c r="F251" s="10">
         <v>10000</v>
       </c>
-      <c r="G251" s="9">
-        <v>100</v>
-      </c>
-      <c r="H251" s="13" t="s">
+      <c r="G251">
+        <v>1000</v>
+      </c>
+      <c r="H251" s="12" t="s">
         <v>422</v>
       </c>
     </row>
@@ -10063,10 +10062,10 @@
       <c r="F252" s="10">
         <v>10000</v>
       </c>
-      <c r="G252" s="9">
-        <v>110</v>
-      </c>
-      <c r="H252" s="13" t="s">
+      <c r="G252">
+        <v>1100</v>
+      </c>
+      <c r="H252" s="12" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10089,10 +10088,10 @@
       <c r="F253" s="10">
         <v>10000</v>
       </c>
-      <c r="G253" s="9">
-        <v>130</v>
-      </c>
-      <c r="H253" s="13" t="s">
+      <c r="G253">
+        <v>1300</v>
+      </c>
+      <c r="H253" s="12" t="s">
         <v>424</v>
       </c>
     </row>
@@ -10115,10 +10114,10 @@
       <c r="F254" s="10">
         <v>10000</v>
       </c>
-      <c r="G254" s="9">
-        <v>42</v>
-      </c>
-      <c r="H254" s="13" t="s">
+      <c r="G254">
+        <v>420</v>
+      </c>
+      <c r="H254" s="12" t="s">
         <v>425</v>
       </c>
     </row>
@@ -10141,10 +10140,10 @@
       <c r="F255" s="10">
         <v>10000</v>
       </c>
-      <c r="G255" s="9">
-        <v>90</v>
-      </c>
-      <c r="H255" s="13" t="s">
+      <c r="G255">
+        <v>900</v>
+      </c>
+      <c r="H255" s="12" t="s">
         <v>426</v>
       </c>
     </row>
@@ -10167,10 +10166,10 @@
       <c r="F256" s="10">
         <v>10000</v>
       </c>
-      <c r="G256" s="9">
-        <v>40</v>
-      </c>
-      <c r="H256" s="13" t="s">
+      <c r="G256">
+        <v>400</v>
+      </c>
+      <c r="H256" s="12" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10193,10 +10192,10 @@
       <c r="F257" s="10">
         <v>10000</v>
       </c>
-      <c r="G257" s="9">
-        <v>60</v>
-      </c>
-      <c r="H257" s="13" t="s">
+      <c r="G257">
+        <v>600</v>
+      </c>
+      <c r="H257" s="12" t="s">
         <v>694</v>
       </c>
     </row>
@@ -10219,10 +10218,10 @@
       <c r="F258" s="10">
         <v>10000</v>
       </c>
-      <c r="G258" s="9">
-        <v>70</v>
-      </c>
-      <c r="H258" s="13" t="s">
+      <c r="G258">
+        <v>700</v>
+      </c>
+      <c r="H258" s="12" t="s">
         <v>695</v>
       </c>
     </row>
@@ -10245,10 +10244,10 @@
       <c r="F259" s="10">
         <v>10000</v>
       </c>
-      <c r="G259" s="9">
-        <v>35</v>
-      </c>
-      <c r="H259" s="13" t="s">
+      <c r="G259">
+        <v>350</v>
+      </c>
+      <c r="H259" s="12" t="s">
         <v>696</v>
       </c>
     </row>
@@ -10271,10 +10270,10 @@
       <c r="F260" s="10">
         <v>10000</v>
       </c>
-      <c r="G260" s="9">
-        <v>100</v>
-      </c>
-      <c r="H260" s="13" t="s">
+      <c r="G260">
+        <v>1000</v>
+      </c>
+      <c r="H260" s="12" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10297,10 +10296,10 @@
       <c r="F261" s="10">
         <v>10000</v>
       </c>
-      <c r="G261" s="9">
-        <v>30</v>
-      </c>
-      <c r="H261" s="13" t="s">
+      <c r="G261">
+        <v>300</v>
+      </c>
+      <c r="H261" s="12" t="s">
         <v>698</v>
       </c>
     </row>
@@ -10323,10 +10322,10 @@
       <c r="F262" s="10">
         <v>10000</v>
       </c>
-      <c r="G262" s="9">
-        <v>56</v>
-      </c>
-      <c r="H262" s="13" t="s">
+      <c r="G262">
+        <v>560</v>
+      </c>
+      <c r="H262" s="12" t="s">
         <v>699</v>
       </c>
     </row>
@@ -10349,10 +10348,10 @@
       <c r="F263" s="10">
         <v>10000</v>
       </c>
-      <c r="G263" s="9">
-        <v>36</v>
-      </c>
-      <c r="H263" s="13" t="s">
+      <c r="G263">
+        <v>360</v>
+      </c>
+      <c r="H263" s="12" t="s">
         <v>700</v>
       </c>
     </row>
@@ -10375,10 +10374,10 @@
       <c r="F264" s="10">
         <v>10000</v>
       </c>
-      <c r="G264" s="9">
-        <v>50</v>
-      </c>
-      <c r="H264" s="13" t="s">
+      <c r="G264">
+        <v>500</v>
+      </c>
+      <c r="H264" s="12" t="s">
         <v>701</v>
       </c>
     </row>
@@ -10401,10 +10400,10 @@
       <c r="F265" s="10">
         <v>10000</v>
       </c>
-      <c r="G265" s="9">
-        <v>32</v>
-      </c>
-      <c r="H265" s="13" t="s">
+      <c r="G265">
+        <v>320</v>
+      </c>
+      <c r="H265" s="12" t="s">
         <v>702</v>
       </c>
     </row>
@@ -10427,10 +10426,10 @@
       <c r="F266" s="10">
         <v>10000</v>
       </c>
-      <c r="G266" s="9">
-        <v>36</v>
-      </c>
-      <c r="H266" s="13" t="s">
+      <c r="G266">
+        <v>360</v>
+      </c>
+      <c r="H266" s="12" t="s">
         <v>703</v>
       </c>
     </row>
@@ -10453,10 +10452,10 @@
       <c r="F267" s="10">
         <v>10000</v>
       </c>
-      <c r="G267" s="9">
-        <v>40</v>
-      </c>
-      <c r="H267" s="13" t="s">
+      <c r="G267">
+        <v>400</v>
+      </c>
+      <c r="H267" s="12" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10479,10 +10478,10 @@
       <c r="F268" s="10">
         <v>10000</v>
       </c>
-      <c r="G268" s="9">
-        <v>100</v>
-      </c>
-      <c r="H268" s="13" t="s">
+      <c r="G268">
+        <v>1000</v>
+      </c>
+      <c r="H268" s="12" t="s">
         <v>705</v>
       </c>
     </row>
@@ -10505,10 +10504,10 @@
       <c r="F269" s="10">
         <v>10000</v>
       </c>
-      <c r="G269" s="9">
-        <v>76</v>
-      </c>
-      <c r="H269" s="13" t="s">
+      <c r="G269">
+        <v>760</v>
+      </c>
+      <c r="H269" s="12" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10531,10 +10530,10 @@
       <c r="F270" s="10">
         <v>10000</v>
       </c>
-      <c r="G270" s="9">
-        <v>50</v>
-      </c>
-      <c r="H270" s="13" t="s">
+      <c r="G270">
+        <v>500</v>
+      </c>
+      <c r="H270" s="12" t="s">
         <v>707</v>
       </c>
     </row>
@@ -10557,10 +10556,10 @@
       <c r="F271" s="10">
         <v>10000</v>
       </c>
-      <c r="G271" s="9">
-        <v>70</v>
-      </c>
-      <c r="H271" s="13" t="s">
+      <c r="G271">
+        <v>700</v>
+      </c>
+      <c r="H271" s="12" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10583,10 +10582,10 @@
       <c r="F272" s="10">
         <v>10000</v>
       </c>
-      <c r="G272" s="9">
-        <v>85</v>
-      </c>
-      <c r="H272" s="13" t="s">
+      <c r="G272">
+        <v>850</v>
+      </c>
+      <c r="H272" s="12" t="s">
         <v>709</v>
       </c>
     </row>
@@ -10609,10 +10608,10 @@
       <c r="F273" s="10">
         <v>10000</v>
       </c>
-      <c r="G273" s="9">
-        <v>185</v>
-      </c>
-      <c r="H273" s="13" t="s">
+      <c r="G273">
+        <v>1850</v>
+      </c>
+      <c r="H273" s="12" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10635,10 +10634,10 @@
       <c r="F274" s="10">
         <v>10000</v>
       </c>
-      <c r="G274" s="9">
-        <v>76</v>
-      </c>
-      <c r="H274" s="13" t="s">
+      <c r="G274">
+        <v>760</v>
+      </c>
+      <c r="H274" s="12" t="s">
         <v>711</v>
       </c>
     </row>
@@ -10661,10 +10660,10 @@
       <c r="F275" s="10">
         <v>10000</v>
       </c>
-      <c r="G275" s="9">
-        <v>90</v>
-      </c>
-      <c r="H275" s="13" t="s">
+      <c r="G275">
+        <v>900</v>
+      </c>
+      <c r="H275" s="12" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10687,10 +10686,10 @@
       <c r="F276" s="10">
         <v>10000</v>
       </c>
-      <c r="G276" s="9">
-        <v>40</v>
-      </c>
-      <c r="H276" s="13" t="s">
+      <c r="G276">
+        <v>400</v>
+      </c>
+      <c r="H276" s="12" t="s">
         <v>713</v>
       </c>
     </row>
@@ -10713,10 +10712,10 @@
       <c r="F277" s="10">
         <v>10000</v>
       </c>
-      <c r="G277" s="9">
-        <v>40</v>
-      </c>
-      <c r="H277" s="13" t="s">
+      <c r="G277">
+        <v>400</v>
+      </c>
+      <c r="H277" s="12" t="s">
         <v>714</v>
       </c>
     </row>
@@ -10739,10 +10738,10 @@
       <c r="F278" s="10">
         <v>10000</v>
       </c>
-      <c r="G278" s="9">
-        <v>30</v>
-      </c>
-      <c r="H278" s="13" t="s">
+      <c r="G278">
+        <v>300</v>
+      </c>
+      <c r="H278" s="12" t="s">
         <v>715</v>
       </c>
     </row>
@@ -10765,10 +10764,10 @@
       <c r="F279" s="10">
         <v>10000</v>
       </c>
-      <c r="G279" s="9">
-        <v>70</v>
-      </c>
-      <c r="H279" s="13" t="s">
+      <c r="G279">
+        <v>700</v>
+      </c>
+      <c r="H279" s="12" t="s">
         <v>716</v>
       </c>
     </row>
@@ -10791,10 +10790,10 @@
       <c r="F280" s="10">
         <v>10000</v>
       </c>
-      <c r="G280" s="12">
-        <v>1200</v>
-      </c>
-      <c r="H280" s="13" t="s">
+      <c r="G280">
+        <v>12000</v>
+      </c>
+      <c r="H280" s="12" t="s">
         <v>717</v>
       </c>
     </row>
@@ -10817,10 +10816,10 @@
       <c r="F281" s="10">
         <v>10000</v>
       </c>
-      <c r="G281" s="9">
-        <v>120</v>
-      </c>
-      <c r="H281" s="13" t="s">
+      <c r="G281">
+        <v>1200</v>
+      </c>
+      <c r="H281" s="12" t="s">
         <v>718</v>
       </c>
     </row>
@@ -10843,10 +10842,10 @@
       <c r="F282" s="10">
         <v>10000</v>
       </c>
-      <c r="G282" s="9">
-        <v>20</v>
-      </c>
-      <c r="H282" s="13" t="s">
+      <c r="G282">
+        <v>200</v>
+      </c>
+      <c r="H282" s="12" t="s">
         <v>719</v>
       </c>
     </row>
@@ -10869,10 +10868,10 @@
       <c r="F283" s="10">
         <v>10000</v>
       </c>
-      <c r="G283" s="9">
-        <v>2</v>
-      </c>
-      <c r="H283" s="13" t="s">
+      <c r="G283">
+        <v>20</v>
+      </c>
+      <c r="H283" s="12" t="s">
         <v>720</v>
       </c>
     </row>
@@ -10895,10 +10894,10 @@
       <c r="F284" s="10">
         <v>10000</v>
       </c>
-      <c r="G284" s="9">
-        <v>80</v>
-      </c>
-      <c r="H284" s="13" t="s">
+      <c r="G284">
+        <v>800</v>
+      </c>
+      <c r="H284" s="12" t="s">
         <v>721</v>
       </c>
     </row>
@@ -10921,10 +10920,10 @@
       <c r="F285" s="10">
         <v>10000</v>
       </c>
-      <c r="G285" s="9">
-        <v>70</v>
-      </c>
-      <c r="H285" s="13" t="s">
+      <c r="G285">
+        <v>700</v>
+      </c>
+      <c r="H285" s="12" t="s">
         <v>722</v>
       </c>
     </row>
@@ -10947,10 +10946,10 @@
       <c r="F286" s="10">
         <v>10000</v>
       </c>
-      <c r="G286" s="9">
-        <v>100</v>
-      </c>
-      <c r="H286" s="13" t="s">
+      <c r="G286">
+        <v>1000</v>
+      </c>
+      <c r="H286" s="12" t="s">
         <v>723</v>
       </c>
     </row>
@@ -10973,10 +10972,10 @@
       <c r="F287" s="10">
         <v>10000</v>
       </c>
-      <c r="G287" s="9">
-        <v>2</v>
-      </c>
-      <c r="H287" s="13" t="s">
+      <c r="G287">
+        <v>20</v>
+      </c>
+      <c r="H287" s="12" t="s">
         <v>724</v>
       </c>
     </row>
@@ -10999,10 +10998,10 @@
       <c r="F288" s="10">
         <v>10000</v>
       </c>
-      <c r="G288" s="9">
-        <v>50</v>
-      </c>
-      <c r="H288" s="13" t="s">
+      <c r="G288">
+        <v>500</v>
+      </c>
+      <c r="H288" s="12" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11025,10 +11024,10 @@
       <c r="F289" s="10">
         <v>10000</v>
       </c>
-      <c r="G289" s="9">
-        <v>30</v>
-      </c>
-      <c r="H289" s="13" t="s">
+      <c r="G289">
+        <v>300</v>
+      </c>
+      <c r="H289" s="12" t="s">
         <v>726</v>
       </c>
     </row>
@@ -11051,10 +11050,10 @@
       <c r="F290" s="10">
         <v>10000</v>
       </c>
-      <c r="G290" s="9">
-        <v>110</v>
-      </c>
-      <c r="H290" s="13" t="s">
+      <c r="G290">
+        <v>1100</v>
+      </c>
+      <c r="H290" s="12" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11077,10 +11076,10 @@
       <c r="F291" s="10">
         <v>10000</v>
       </c>
-      <c r="G291" s="9">
-        <v>5</v>
-      </c>
-      <c r="H291" s="13" t="s">
+      <c r="G291">
+        <v>50</v>
+      </c>
+      <c r="H291" s="12" t="s">
         <v>728</v>
       </c>
     </row>
@@ -11103,10 +11102,10 @@
       <c r="F292" s="10">
         <v>10000</v>
       </c>
-      <c r="G292" s="9">
-        <v>35</v>
-      </c>
-      <c r="H292" s="13" t="s">
+      <c r="G292">
+        <v>350</v>
+      </c>
+      <c r="H292" s="12" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11129,10 +11128,10 @@
       <c r="F293" s="10">
         <v>10000</v>
       </c>
-      <c r="G293" s="9">
-        <v>35</v>
-      </c>
-      <c r="H293" s="13" t="s">
+      <c r="G293">
+        <v>350</v>
+      </c>
+      <c r="H293" s="12" t="s">
         <v>730</v>
       </c>
     </row>
@@ -11155,10 +11154,10 @@
       <c r="F294" s="10">
         <v>10000</v>
       </c>
-      <c r="G294" s="9">
-        <v>100</v>
-      </c>
-      <c r="H294" s="13" t="s">
+      <c r="G294">
+        <v>1000</v>
+      </c>
+      <c r="H294" s="12" t="s">
         <v>731</v>
       </c>
     </row>
@@ -11181,10 +11180,10 @@
       <c r="F295" s="10">
         <v>10000</v>
       </c>
-      <c r="G295" s="9">
-        <v>400</v>
-      </c>
-      <c r="H295" s="13" t="s">
+      <c r="G295">
+        <v>4000</v>
+      </c>
+      <c r="H295" s="12" t="s">
         <v>732</v>
       </c>
     </row>
@@ -11207,10 +11206,10 @@
       <c r="F296" s="10">
         <v>10000</v>
       </c>
-      <c r="G296" s="9">
-        <v>420</v>
-      </c>
-      <c r="H296" s="13" t="s">
+      <c r="G296">
+        <v>4200</v>
+      </c>
+      <c r="H296" s="12" t="s">
         <v>733</v>
       </c>
     </row>
@@ -11233,10 +11232,10 @@
       <c r="F297" s="10">
         <v>10000</v>
       </c>
-      <c r="G297" s="9">
-        <v>30</v>
-      </c>
-      <c r="H297" s="13" t="s">
+      <c r="G297">
+        <v>300</v>
+      </c>
+      <c r="H297" s="12" t="s">
         <v>734</v>
       </c>
     </row>
@@ -11259,10 +11258,10 @@
       <c r="F298" s="10">
         <v>10000</v>
       </c>
-      <c r="G298" s="9">
-        <v>20</v>
-      </c>
-      <c r="H298" s="13" t="s">
+      <c r="G298">
+        <v>200</v>
+      </c>
+      <c r="H298" s="12" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11285,10 +11284,10 @@
       <c r="F299" s="10">
         <v>10000</v>
       </c>
-      <c r="G299" s="9">
-        <v>30</v>
-      </c>
-      <c r="H299" s="13" t="s">
+      <c r="G299">
+        <v>300</v>
+      </c>
+      <c r="H299" s="12" t="s">
         <v>736</v>
       </c>
     </row>
@@ -11311,10 +11310,10 @@
       <c r="F300" s="10">
         <v>10000</v>
       </c>
-      <c r="G300" s="9">
-        <v>10</v>
-      </c>
-      <c r="H300" s="13" t="s">
+      <c r="G300">
+        <v>100</v>
+      </c>
+      <c r="H300" s="12" t="s">
         <v>737</v>
       </c>
     </row>
@@ -11337,10 +11336,10 @@
       <c r="F301" s="10">
         <v>10000</v>
       </c>
-      <c r="G301" s="9">
-        <v>100</v>
-      </c>
-      <c r="H301" s="13" t="s">
+      <c r="G301">
+        <v>1000</v>
+      </c>
+      <c r="H301" s="12" t="s">
         <v>738</v>
       </c>
     </row>
@@ -11363,10 +11362,10 @@
       <c r="F302" s="10">
         <v>10000</v>
       </c>
-      <c r="G302" s="9">
-        <v>10</v>
-      </c>
-      <c r="H302" s="13" t="s">
+      <c r="G302">
+        <v>100</v>
+      </c>
+      <c r="H302" s="12" t="s">
         <v>739</v>
       </c>
     </row>
@@ -11389,10 +11388,10 @@
       <c r="F303" s="10">
         <v>10000</v>
       </c>
-      <c r="G303" s="9">
-        <v>10</v>
-      </c>
-      <c r="H303" s="13" t="s">
+      <c r="G303">
+        <v>100</v>
+      </c>
+      <c r="H303" s="12" t="s">
         <v>740</v>
       </c>
     </row>
@@ -11415,10 +11414,10 @@
       <c r="F304" s="10">
         <v>10000</v>
       </c>
-      <c r="G304" s="9">
-        <v>10</v>
-      </c>
-      <c r="H304" s="13" t="s">
+      <c r="G304">
+        <v>100</v>
+      </c>
+      <c r="H304" s="12" t="s">
         <v>741</v>
       </c>
     </row>
@@ -11441,10 +11440,10 @@
       <c r="F305" s="10">
         <v>10000</v>
       </c>
-      <c r="G305" s="9">
-        <v>5</v>
-      </c>
-      <c r="H305" s="13" t="s">
+      <c r="G305">
+        <v>50</v>
+      </c>
+      <c r="H305" s="12" t="s">
         <v>742</v>
       </c>
     </row>
@@ -11467,10 +11466,10 @@
       <c r="F306" s="10">
         <v>10000</v>
       </c>
-      <c r="G306" s="9">
-        <v>110</v>
-      </c>
-      <c r="H306" s="13" t="s">
+      <c r="G306">
+        <v>1100</v>
+      </c>
+      <c r="H306" s="12" t="s">
         <v>743</v>
       </c>
     </row>
@@ -11493,10 +11492,10 @@
       <c r="F307" s="10">
         <v>10000</v>
       </c>
-      <c r="G307" s="9">
-        <v>6</v>
-      </c>
-      <c r="H307" s="13" t="s">
+      <c r="G307">
+        <v>60</v>
+      </c>
+      <c r="H307" s="12" t="s">
         <v>744</v>
       </c>
     </row>
@@ -11519,10 +11518,10 @@
       <c r="F308" s="10">
         <v>10000</v>
       </c>
-      <c r="G308" s="9">
-        <v>70</v>
-      </c>
-      <c r="H308" s="13" t="s">
+      <c r="G308">
+        <v>700</v>
+      </c>
+      <c r="H308" s="12" t="s">
         <v>745</v>
       </c>
     </row>
@@ -11545,10 +11544,10 @@
       <c r="F309" s="10">
         <v>10000</v>
       </c>
-      <c r="G309" s="9">
-        <v>70</v>
-      </c>
-      <c r="H309" s="13" t="s">
+      <c r="G309">
+        <v>700</v>
+      </c>
+      <c r="H309" s="12" t="s">
         <v>746</v>
       </c>
     </row>
@@ -11571,10 +11570,10 @@
       <c r="F310" s="10">
         <v>10000</v>
       </c>
-      <c r="G310" s="9">
-        <v>200</v>
-      </c>
-      <c r="H310" s="13" t="s">
+      <c r="G310">
+        <v>2000</v>
+      </c>
+      <c r="H310" s="12" t="s">
         <v>747</v>
       </c>
     </row>
@@ -11597,10 +11596,10 @@
       <c r="F311" s="10">
         <v>10000</v>
       </c>
-      <c r="G311" s="9">
-        <v>300</v>
-      </c>
-      <c r="H311" s="13" t="s">
+      <c r="G311">
+        <v>3000</v>
+      </c>
+      <c r="H311" s="12" t="s">
         <v>748</v>
       </c>
     </row>
@@ -11623,10 +11622,10 @@
       <c r="F312" s="10">
         <v>10000</v>
       </c>
-      <c r="G312" s="9">
-        <v>260</v>
-      </c>
-      <c r="H312" s="13" t="s">
+      <c r="G312">
+        <v>2600</v>
+      </c>
+      <c r="H312" s="12" t="s">
         <v>749</v>
       </c>
     </row>
@@ -11649,10 +11648,10 @@
       <c r="F313" s="10">
         <v>10000</v>
       </c>
-      <c r="G313" s="9">
-        <v>140</v>
-      </c>
-      <c r="H313" s="13" t="s">
+      <c r="G313">
+        <v>1400</v>
+      </c>
+      <c r="H313" s="12" t="s">
         <v>750</v>
       </c>
     </row>
@@ -11675,10 +11674,10 @@
       <c r="F314" s="10">
         <v>10000</v>
       </c>
-      <c r="G314" s="9">
-        <v>6</v>
-      </c>
-      <c r="H314" s="13" t="s">
+      <c r="G314">
+        <v>60</v>
+      </c>
+      <c r="H314" s="12" t="s">
         <v>751</v>
       </c>
     </row>
@@ -11701,10 +11700,10 @@
       <c r="F315" s="10">
         <v>10000</v>
       </c>
-      <c r="G315" s="9">
-        <v>22</v>
-      </c>
-      <c r="H315" s="13" t="s">
+      <c r="G315">
+        <v>220</v>
+      </c>
+      <c r="H315" s="12" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11727,10 +11726,10 @@
       <c r="F316" s="10">
         <v>10000</v>
       </c>
-      <c r="G316" s="9">
-        <v>60</v>
-      </c>
-      <c r="H316" s="13" t="s">
+      <c r="G316">
+        <v>600</v>
+      </c>
+      <c r="H316" s="12" t="s">
         <v>753</v>
       </c>
     </row>
@@ -11753,10 +11752,10 @@
       <c r="F317" s="10">
         <v>10000</v>
       </c>
-      <c r="G317" s="9">
-        <v>100</v>
-      </c>
-      <c r="H317" s="13" t="s">
+      <c r="G317">
+        <v>1000</v>
+      </c>
+      <c r="H317" s="12" t="s">
         <v>754</v>
       </c>
     </row>
@@ -11779,10 +11778,10 @@
       <c r="F318" s="10">
         <v>10000</v>
       </c>
-      <c r="G318" s="9">
-        <v>60</v>
-      </c>
-      <c r="H318" s="13" t="s">
+      <c r="G318">
+        <v>600</v>
+      </c>
+      <c r="H318" s="12" t="s">
         <v>755</v>
       </c>
     </row>
@@ -11805,10 +11804,10 @@
       <c r="F319" s="10">
         <v>10000</v>
       </c>
-      <c r="G319" s="9">
-        <v>90</v>
-      </c>
-      <c r="H319" s="13" t="s">
+      <c r="G319">
+        <v>900</v>
+      </c>
+      <c r="H319" s="12" t="s">
         <v>756</v>
       </c>
     </row>
@@ -11831,10 +11830,10 @@
       <c r="F320" s="10">
         <v>10000</v>
       </c>
-      <c r="G320" s="9">
-        <v>240</v>
-      </c>
-      <c r="H320" s="13" t="s">
+      <c r="G320">
+        <v>2400</v>
+      </c>
+      <c r="H320" s="12" t="s">
         <v>757</v>
       </c>
     </row>
@@ -11857,10 +11856,10 @@
       <c r="F321" s="10">
         <v>10000</v>
       </c>
-      <c r="G321" s="9">
-        <v>80</v>
-      </c>
-      <c r="H321" s="13" t="s">
+      <c r="G321">
+        <v>800</v>
+      </c>
+      <c r="H321" s="12" t="s">
         <v>758</v>
       </c>
     </row>
@@ -11883,10 +11882,10 @@
       <c r="F322" s="10">
         <v>10000</v>
       </c>
-      <c r="G322" s="9">
-        <v>150</v>
-      </c>
-      <c r="H322" s="13" t="s">
+      <c r="G322">
+        <v>1500</v>
+      </c>
+      <c r="H322" s="12" t="s">
         <v>759</v>
       </c>
     </row>
@@ -11909,10 +11908,10 @@
       <c r="F323" s="10">
         <v>10000</v>
       </c>
-      <c r="G323" s="9">
-        <v>2</v>
-      </c>
-      <c r="H323" s="13" t="s">
+      <c r="G323">
+        <v>20</v>
+      </c>
+      <c r="H323" s="12" t="s">
         <v>760</v>
       </c>
     </row>
@@ -11935,10 +11934,10 @@
       <c r="F324" s="10">
         <v>10000</v>
       </c>
-      <c r="G324" s="9">
-        <v>220</v>
-      </c>
-      <c r="H324" s="13" t="s">
+      <c r="G324">
+        <v>2200</v>
+      </c>
+      <c r="H324" s="12" t="s">
         <v>761</v>
       </c>
     </row>
@@ -11961,10 +11960,10 @@
       <c r="F325" s="10">
         <v>10000</v>
       </c>
-      <c r="G325" s="9">
-        <v>20</v>
-      </c>
-      <c r="H325" s="13" t="s">
+      <c r="G325">
+        <v>200</v>
+      </c>
+      <c r="H325" s="12" t="s">
         <v>762</v>
       </c>
     </row>
@@ -11987,10 +11986,10 @@
       <c r="F326" s="10">
         <v>10000</v>
       </c>
-      <c r="G326" s="9">
-        <v>20</v>
-      </c>
-      <c r="H326" s="13" t="s">
+      <c r="G326">
+        <v>200</v>
+      </c>
+      <c r="H326" s="12" t="s">
         <v>763</v>
       </c>
     </row>
@@ -12013,10 +12012,10 @@
       <c r="F327" s="10">
         <v>10000</v>
       </c>
-      <c r="G327" s="9">
-        <v>15</v>
-      </c>
-      <c r="H327" s="13" t="s">
+      <c r="G327">
+        <v>150</v>
+      </c>
+      <c r="H327" s="12" t="s">
         <v>764</v>
       </c>
     </row>
@@ -12039,10 +12038,10 @@
       <c r="F328" s="10">
         <v>10000</v>
       </c>
-      <c r="G328" s="9">
-        <v>10</v>
-      </c>
-      <c r="H328" s="13" t="s">
+      <c r="G328">
+        <v>100</v>
+      </c>
+      <c r="H328" s="12" t="s">
         <v>765</v>
       </c>
     </row>
@@ -12065,10 +12064,10 @@
       <c r="F329" s="10">
         <v>10000</v>
       </c>
-      <c r="G329" s="9">
-        <v>20</v>
-      </c>
-      <c r="H329" s="13" t="s">
+      <c r="G329">
+        <v>200</v>
+      </c>
+      <c r="H329" s="12" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12091,10 +12090,10 @@
       <c r="F330" s="10">
         <v>10000</v>
       </c>
-      <c r="G330" s="9">
-        <v>24</v>
-      </c>
-      <c r="H330" s="13" t="s">
+      <c r="G330">
+        <v>240</v>
+      </c>
+      <c r="H330" s="12" t="s">
         <v>767</v>
       </c>
     </row>
@@ -12117,10 +12116,10 @@
       <c r="F331" s="10">
         <v>10000</v>
       </c>
-      <c r="G331" s="9">
-        <v>30</v>
-      </c>
-      <c r="H331" s="13" t="s">
+      <c r="G331">
+        <v>300</v>
+      </c>
+      <c r="H331" s="12" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12143,10 +12142,10 @@
       <c r="F332" s="10">
         <v>10000</v>
       </c>
-      <c r="G332" s="9">
-        <v>152</v>
-      </c>
-      <c r="H332" s="13" t="s">
+      <c r="G332">
+        <v>1520</v>
+      </c>
+      <c r="H332" s="12" t="s">
         <v>769</v>
       </c>
     </row>
@@ -12169,10 +12168,10 @@
       <c r="F333" s="10">
         <v>10000</v>
       </c>
-      <c r="G333" s="9">
-        <v>120</v>
-      </c>
-      <c r="H333" s="13" t="s">
+      <c r="G333">
+        <v>1200</v>
+      </c>
+      <c r="H333" s="12" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12195,10 +12194,10 @@
       <c r="F334" s="10">
         <v>10000</v>
       </c>
-      <c r="G334" s="9">
-        <v>15</v>
-      </c>
-      <c r="H334" s="13" t="s">
+      <c r="G334">
+        <v>150</v>
+      </c>
+      <c r="H334" s="12" t="s">
         <v>771</v>
       </c>
     </row>
@@ -12221,10 +12220,10 @@
       <c r="F335" s="10">
         <v>10000</v>
       </c>
-      <c r="G335" s="9">
-        <v>80</v>
-      </c>
-      <c r="H335" s="13" t="s">
+      <c r="G335">
+        <v>800</v>
+      </c>
+      <c r="H335" s="12" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12247,10 +12246,10 @@
       <c r="F336" s="10">
         <v>10000</v>
       </c>
-      <c r="G336" s="9">
-        <v>80</v>
-      </c>
-      <c r="H336" s="13" t="s">
+      <c r="G336">
+        <v>800</v>
+      </c>
+      <c r="H336" s="12" t="s">
         <v>773</v>
       </c>
     </row>
@@ -12273,10 +12272,10 @@
       <c r="F337" s="10">
         <v>10000</v>
       </c>
-      <c r="G337" s="9">
-        <v>140</v>
-      </c>
-      <c r="H337" s="13" t="s">
+      <c r="G337">
+        <v>1400</v>
+      </c>
+      <c r="H337" s="12" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12299,10 +12298,10 @@
       <c r="F338" s="10">
         <v>10000</v>
       </c>
-      <c r="G338" s="9">
-        <v>1</v>
-      </c>
-      <c r="H338" s="13" t="s">
+      <c r="G338">
+        <v>10</v>
+      </c>
+      <c r="H338" s="12" t="s">
         <v>775</v>
       </c>
     </row>
@@ -12325,10 +12324,10 @@
       <c r="F339" s="10">
         <v>10000</v>
       </c>
-      <c r="G339" s="9">
-        <v>1</v>
-      </c>
-      <c r="H339" s="13" t="s">
+      <c r="G339">
+        <v>10</v>
+      </c>
+      <c r="H339" s="12" t="s">
         <v>776</v>
       </c>
     </row>
@@ -12351,10 +12350,10 @@
       <c r="F340" s="10">
         <v>10000</v>
       </c>
-      <c r="G340" s="9">
-        <v>10</v>
-      </c>
-      <c r="H340" s="13" t="s">
+      <c r="G340">
+        <v>100</v>
+      </c>
+      <c r="H340" s="12" t="s">
         <v>777</v>
       </c>
     </row>
@@ -12377,10 +12376,10 @@
       <c r="F341" s="10">
         <v>10000</v>
       </c>
-      <c r="G341" s="9">
-        <v>20</v>
-      </c>
-      <c r="H341" s="13" t="s">
+      <c r="G341">
+        <v>200</v>
+      </c>
+      <c r="H341" s="12" t="s">
         <v>778</v>
       </c>
     </row>
@@ -12403,10 +12402,10 @@
       <c r="F342" s="10">
         <v>10000</v>
       </c>
-      <c r="G342" s="9">
-        <v>40</v>
-      </c>
-      <c r="H342" s="13" t="s">
+      <c r="G342">
+        <v>400</v>
+      </c>
+      <c r="H342" s="12" t="s">
         <v>779</v>
       </c>
     </row>
@@ -12429,10 +12428,10 @@
       <c r="F343" s="10">
         <v>10000</v>
       </c>
-      <c r="G343" s="9">
-        <v>60</v>
-      </c>
-      <c r="H343" s="13" t="s">
+      <c r="G343">
+        <v>600</v>
+      </c>
+      <c r="H343" s="12" t="s">
         <v>780</v>
       </c>
     </row>
@@ -12455,10 +12454,10 @@
       <c r="F344" s="10">
         <v>10000</v>
       </c>
-      <c r="G344" s="9">
-        <v>60</v>
-      </c>
-      <c r="H344" s="13" t="s">
+      <c r="G344">
+        <v>600</v>
+      </c>
+      <c r="H344" s="12" t="s">
         <v>781</v>
       </c>
     </row>
@@ -12481,10 +12480,10 @@
       <c r="F345" s="10">
         <v>10000</v>
       </c>
-      <c r="G345" s="9">
-        <v>220</v>
-      </c>
-      <c r="H345" s="13" t="s">
+      <c r="G345">
+        <v>2200</v>
+      </c>
+      <c r="H345" s="12" t="s">
         <v>782</v>
       </c>
     </row>
@@ -12507,10 +12506,10 @@
       <c r="F346" s="10">
         <v>10000</v>
       </c>
-      <c r="G346" s="9">
-        <v>152</v>
-      </c>
-      <c r="H346" s="13" t="s">
+      <c r="G346">
+        <v>1520</v>
+      </c>
+      <c r="H346" s="12" t="s">
         <v>783</v>
       </c>
     </row>
@@ -12533,10 +12532,10 @@
       <c r="F347" s="10">
         <v>10000</v>
       </c>
-      <c r="G347" s="9">
-        <v>50</v>
-      </c>
-      <c r="H347" s="13" t="s">
+      <c r="G347">
+        <v>500</v>
+      </c>
+      <c r="H347" s="12" t="s">
         <v>784</v>
       </c>
     </row>
@@ -12559,10 +12558,10 @@
       <c r="F348" s="10">
         <v>10000</v>
       </c>
-      <c r="G348" s="9">
-        <v>30</v>
-      </c>
-      <c r="H348" s="13" t="s">
+      <c r="G348">
+        <v>300</v>
+      </c>
+      <c r="H348" s="12" t="s">
         <v>785</v>
       </c>
     </row>
@@ -12585,10 +12584,10 @@
       <c r="F349" s="10">
         <v>10000</v>
       </c>
-      <c r="G349" s="9">
-        <v>20</v>
-      </c>
-      <c r="H349" s="13" t="s">
+      <c r="G349">
+        <v>200</v>
+      </c>
+      <c r="H349" s="12" t="s">
         <v>786</v>
       </c>
     </row>
@@ -12611,10 +12610,10 @@
       <c r="F350" s="10">
         <v>10000</v>
       </c>
-      <c r="G350" s="9">
-        <v>55</v>
-      </c>
-      <c r="H350" s="13" t="s">
+      <c r="G350">
+        <v>550</v>
+      </c>
+      <c r="H350" s="12" t="s">
         <v>787</v>
       </c>
     </row>
@@ -12637,10 +12636,10 @@
       <c r="F351" s="10">
         <v>10000</v>
       </c>
-      <c r="G351" s="9">
-        <v>55</v>
-      </c>
-      <c r="H351" s="13" t="s">
+      <c r="G351">
+        <v>550</v>
+      </c>
+      <c r="H351" s="12" t="s">
         <v>788</v>
       </c>
     </row>
@@ -12663,10 +12662,10 @@
       <c r="F352" s="10">
         <v>10000</v>
       </c>
-      <c r="G352" s="9">
-        <v>100</v>
-      </c>
-      <c r="H352" s="13" t="s">
+      <c r="G352">
+        <v>1000</v>
+      </c>
+      <c r="H352" s="12" t="s">
         <v>789</v>
       </c>
     </row>
@@ -12689,10 +12688,10 @@
       <c r="F353" s="10">
         <v>10000</v>
       </c>
-      <c r="G353" s="9">
-        <v>60</v>
-      </c>
-      <c r="H353" s="13" t="s">
+      <c r="G353">
+        <v>600</v>
+      </c>
+      <c r="H353" s="12" t="s">
         <v>790</v>
       </c>
     </row>
@@ -12715,10 +12714,10 @@
       <c r="F354" s="10">
         <v>10000</v>
       </c>
-      <c r="G354" s="9">
-        <v>15</v>
-      </c>
-      <c r="H354" s="13" t="s">
+      <c r="G354">
+        <v>150</v>
+      </c>
+      <c r="H354" s="12" t="s">
         <v>791</v>
       </c>
     </row>
@@ -12741,10 +12740,10 @@
       <c r="F355" s="10">
         <v>10000</v>
       </c>
-      <c r="G355" s="9">
-        <v>25</v>
-      </c>
-      <c r="H355" s="13" t="s">
+      <c r="G355">
+        <v>250</v>
+      </c>
+      <c r="H355" s="12" t="s">
         <v>792</v>
       </c>
     </row>
@@ -12767,10 +12766,10 @@
       <c r="F356" s="10">
         <v>10000</v>
       </c>
-      <c r="G356" s="9">
-        <v>40</v>
-      </c>
-      <c r="H356" s="13" t="s">
+      <c r="G356">
+        <v>400</v>
+      </c>
+      <c r="H356" s="12" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12793,10 +12792,10 @@
       <c r="F357" s="10">
         <v>10000</v>
       </c>
-      <c r="G357" s="9">
-        <v>20</v>
-      </c>
-      <c r="H357" s="13" t="s">
+      <c r="G357">
+        <v>200</v>
+      </c>
+      <c r="H357" s="12" t="s">
         <v>794</v>
       </c>
     </row>
@@ -12819,10 +12818,10 @@
       <c r="F358" s="10">
         <v>10000</v>
       </c>
-      <c r="G358" s="9">
-        <v>30</v>
-      </c>
-      <c r="H358" s="13" t="s">
+      <c r="G358">
+        <v>300</v>
+      </c>
+      <c r="H358" s="12" t="s">
         <v>795</v>
       </c>
     </row>
@@ -12845,10 +12844,10 @@
       <c r="F359" s="10">
         <v>10000</v>
       </c>
-      <c r="G359" s="9">
-        <v>96</v>
-      </c>
-      <c r="H359" s="13" t="s">
+      <c r="G359">
+        <v>960</v>
+      </c>
+      <c r="H359" s="12" t="s">
         <v>796</v>
       </c>
     </row>
@@ -12871,10 +12870,10 @@
       <c r="F360" s="10">
         <v>10000</v>
       </c>
-      <c r="G360" s="9">
-        <v>100</v>
-      </c>
-      <c r="H360" s="13" t="s">
+      <c r="G360">
+        <v>1000</v>
+      </c>
+      <c r="H360" s="12" t="s">
         <v>797</v>
       </c>
     </row>
@@ -12897,10 +12896,10 @@
       <c r="F361" s="10">
         <v>10000</v>
       </c>
-      <c r="G361" s="9">
-        <v>60</v>
-      </c>
-      <c r="H361" s="13" t="s">
+      <c r="G361">
+        <v>600</v>
+      </c>
+      <c r="H361" s="12" t="s">
         <v>798</v>
       </c>
     </row>
@@ -12923,10 +12922,10 @@
       <c r="F362" s="10">
         <v>10000</v>
       </c>
-      <c r="G362" s="9">
-        <v>70</v>
-      </c>
-      <c r="H362" s="13" t="s">
+      <c r="G362">
+        <v>700</v>
+      </c>
+      <c r="H362" s="12" t="s">
         <v>799</v>
       </c>
     </row>
@@ -12949,10 +12948,10 @@
       <c r="F363" s="10">
         <v>10000</v>
       </c>
-      <c r="G363" s="9">
-        <v>110</v>
-      </c>
-      <c r="H363" s="13" t="s">
+      <c r="G363">
+        <v>1100</v>
+      </c>
+      <c r="H363" s="12" t="s">
         <v>800</v>
       </c>
     </row>
@@ -12975,10 +12974,10 @@
       <c r="F364" s="10">
         <v>10000</v>
       </c>
-      <c r="G364" s="9">
-        <v>140</v>
-      </c>
-      <c r="H364" s="13" t="s">
+      <c r="G364">
+        <v>1400</v>
+      </c>
+      <c r="H364" s="12" t="s">
         <v>801</v>
       </c>
     </row>
@@ -13001,10 +13000,10 @@
       <c r="F365" s="10">
         <v>10000</v>
       </c>
-      <c r="G365" s="9">
-        <v>110</v>
-      </c>
-      <c r="H365" s="13" t="s">
+      <c r="G365">
+        <v>1100</v>
+      </c>
+      <c r="H365" s="12" t="s">
         <v>802</v>
       </c>
     </row>
@@ -13027,10 +13026,10 @@
       <c r="F366" s="10">
         <v>10000</v>
       </c>
-      <c r="G366" s="9">
-        <v>98</v>
-      </c>
-      <c r="H366" s="13" t="s">
+      <c r="G366">
+        <v>980</v>
+      </c>
+      <c r="H366" s="12" t="s">
         <v>803</v>
       </c>
     </row>
@@ -13053,10 +13052,10 @@
       <c r="F367" s="10">
         <v>10000</v>
       </c>
-      <c r="G367" s="9">
-        <v>3</v>
-      </c>
-      <c r="H367" s="13" t="s">
+      <c r="G367">
+        <v>30</v>
+      </c>
+      <c r="H367" s="12" t="s">
         <v>804</v>
       </c>
     </row>
@@ -13079,10 +13078,10 @@
       <c r="F368" s="10">
         <v>10000</v>
       </c>
-      <c r="G368" s="9">
-        <v>120</v>
-      </c>
-      <c r="H368" s="13" t="s">
+      <c r="G368">
+        <v>1200</v>
+      </c>
+      <c r="H368" s="12" t="s">
         <v>805</v>
       </c>
     </row>
@@ -13105,10 +13104,10 @@
       <c r="F369" s="10">
         <v>10000</v>
       </c>
-      <c r="G369" s="9">
-        <v>20</v>
-      </c>
-      <c r="H369" s="13" t="s">
+      <c r="G369">
+        <v>200</v>
+      </c>
+      <c r="H369" s="12" t="s">
         <v>806</v>
       </c>
     </row>
@@ -13131,10 +13130,10 @@
       <c r="F370" s="10">
         <v>10000</v>
       </c>
-      <c r="G370" s="9">
-        <v>18</v>
-      </c>
-      <c r="H370" s="13" t="s">
+      <c r="G370">
+        <v>180</v>
+      </c>
+      <c r="H370" s="12" t="s">
         <v>807</v>
       </c>
     </row>
@@ -13157,10 +13156,10 @@
       <c r="F371" s="10">
         <v>10000</v>
       </c>
-      <c r="G371" s="9">
-        <v>1</v>
-      </c>
-      <c r="H371" s="13" t="s">
+      <c r="G371">
+        <v>10</v>
+      </c>
+      <c r="H371" s="12" t="s">
         <v>808</v>
       </c>
     </row>
@@ -13183,10 +13182,10 @@
       <c r="F372" s="10">
         <v>10000</v>
       </c>
-      <c r="G372" s="9">
-        <v>10</v>
-      </c>
-      <c r="H372" s="13" t="s">
+      <c r="G372">
+        <v>100</v>
+      </c>
+      <c r="H372" s="12" t="s">
         <v>809</v>
       </c>
     </row>
@@ -13209,10 +13208,10 @@
       <c r="F373" s="10">
         <v>10000</v>
       </c>
-      <c r="G373" s="9">
-        <v>10</v>
-      </c>
-      <c r="H373" s="13" t="s">
+      <c r="G373">
+        <v>100</v>
+      </c>
+      <c r="H373" s="12" t="s">
         <v>810</v>
       </c>
     </row>
@@ -13235,10 +13234,10 @@
       <c r="F374" s="10">
         <v>10000</v>
       </c>
-      <c r="G374" s="9">
-        <v>3</v>
-      </c>
-      <c r="H374" s="13" t="s">
+      <c r="G374">
+        <v>30</v>
+      </c>
+      <c r="H374" s="12" t="s">
         <v>811</v>
       </c>
     </row>
@@ -13261,10 +13260,10 @@
       <c r="F375" s="10">
         <v>10000</v>
       </c>
-      <c r="G375" s="9">
-        <v>95</v>
-      </c>
-      <c r="H375" s="13" t="s">
+      <c r="G375">
+        <v>950</v>
+      </c>
+      <c r="H375" s="12" t="s">
         <v>812</v>
       </c>
     </row>
@@ -13287,10 +13286,10 @@
       <c r="F376" s="10">
         <v>10000</v>
       </c>
-      <c r="G376" s="9">
-        <v>100</v>
-      </c>
-      <c r="H376" s="13" t="s">
+      <c r="G376">
+        <v>1000</v>
+      </c>
+      <c r="H376" s="12" t="s">
         <v>813</v>
       </c>
     </row>
@@ -13313,10 +13312,10 @@
       <c r="F377" s="10">
         <v>10000</v>
       </c>
-      <c r="G377" s="9">
-        <v>71</v>
-      </c>
-      <c r="H377" s="13" t="s">
+      <c r="G377">
+        <v>710</v>
+      </c>
+      <c r="H377" s="12" t="s">
         <v>814</v>
       </c>
     </row>
@@ -13339,10 +13338,10 @@
       <c r="F378" s="10">
         <v>10000</v>
       </c>
-      <c r="G378" s="9">
-        <v>85</v>
-      </c>
-      <c r="H378" s="13" t="s">
+      <c r="G378">
+        <v>850</v>
+      </c>
+      <c r="H378" s="12" t="s">
         <v>815</v>
       </c>
     </row>
@@ -13365,10 +13364,10 @@
       <c r="F379" s="10">
         <v>10000</v>
       </c>
-      <c r="G379" s="9">
-        <v>100</v>
-      </c>
-      <c r="H379" s="13" t="s">
+      <c r="G379">
+        <v>1000</v>
+      </c>
+      <c r="H379" s="12" t="s">
         <v>816</v>
       </c>
     </row>
@@ -13391,10 +13390,10 @@
       <c r="F380" s="10">
         <v>10000</v>
       </c>
-      <c r="G380" s="9">
-        <v>130</v>
-      </c>
-      <c r="H380" s="13" t="s">
+      <c r="G380">
+        <v>1300</v>
+      </c>
+      <c r="H380" s="12" t="s">
         <v>817</v>
       </c>
     </row>
@@ -13417,10 +13416,10 @@
       <c r="F381" s="10">
         <v>10000</v>
       </c>
-      <c r="G381" s="9">
-        <v>34</v>
-      </c>
-      <c r="H381" s="13" t="s">
+      <c r="G381">
+        <v>340</v>
+      </c>
+      <c r="H381" s="12" t="s">
         <v>818</v>
       </c>
     </row>
@@ -13443,10 +13442,10 @@
       <c r="F382" s="10">
         <v>10000</v>
       </c>
-      <c r="G382" s="9">
-        <v>3</v>
-      </c>
-      <c r="H382" s="13" t="s">
+      <c r="G382">
+        <v>30</v>
+      </c>
+      <c r="H382" s="12" t="s">
         <v>819</v>
       </c>
     </row>
@@ -13469,10 +13468,10 @@
       <c r="F383" s="10">
         <v>10000</v>
       </c>
-      <c r="G383" s="9">
-        <v>26</v>
-      </c>
-      <c r="H383" s="13" t="s">
+      <c r="G383">
+        <v>260</v>
+      </c>
+      <c r="H383" s="12" t="s">
         <v>820</v>
       </c>
     </row>
@@ -13495,10 +13494,10 @@
       <c r="F384" s="10">
         <v>10000</v>
       </c>
-      <c r="G384" s="9">
-        <v>320</v>
-      </c>
-      <c r="H384" s="13" t="s">
+      <c r="G384">
+        <v>3200</v>
+      </c>
+      <c r="H384" s="12" t="s">
         <v>821</v>
       </c>
     </row>
@@ -13521,10 +13520,10 @@
       <c r="F385" s="10">
         <v>10000</v>
       </c>
-      <c r="G385" s="9">
-        <v>10</v>
-      </c>
-      <c r="H385" s="13" t="s">
+      <c r="G385">
+        <v>100</v>
+      </c>
+      <c r="H385" s="12" t="s">
         <v>822</v>
       </c>
     </row>
@@ -13547,10 +13546,10 @@
       <c r="F386" s="10">
         <v>10000</v>
       </c>
-      <c r="G386" s="9">
-        <v>83</v>
-      </c>
-      <c r="H386" s="13" t="s">
+      <c r="G386">
+        <v>830</v>
+      </c>
+      <c r="H386" s="12" t="s">
         <v>823</v>
       </c>
     </row>
@@ -13573,10 +13572,10 @@
       <c r="F387" s="10">
         <v>10000</v>
       </c>
-      <c r="G387" s="9">
-        <v>100</v>
-      </c>
-      <c r="H387" s="13" t="s">
+      <c r="G387">
+        <v>1000</v>
+      </c>
+      <c r="H387" s="12" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13599,10 +13598,10 @@
       <c r="F388" s="10">
         <v>10000</v>
       </c>
-      <c r="G388" s="9">
-        <v>700</v>
-      </c>
-      <c r="H388" s="13" t="s">
+      <c r="G388">
+        <v>7000</v>
+      </c>
+      <c r="H388" s="12" t="s">
         <v>825</v>
       </c>
     </row>
@@ -13625,10 +13624,10 @@
       <c r="F389" s="10">
         <v>10000</v>
       </c>
-      <c r="G389" s="9">
-        <v>50</v>
-      </c>
-      <c r="H389" s="13" t="s">
+      <c r="G389">
+        <v>500</v>
+      </c>
+      <c r="H389" s="12" t="s">
         <v>826</v>
       </c>
     </row>
@@ -13651,10 +13650,10 @@
       <c r="F390" s="10">
         <v>10000</v>
       </c>
-      <c r="G390" s="9">
-        <v>80</v>
-      </c>
-      <c r="H390" s="13" t="s">
+      <c r="G390">
+        <v>800</v>
+      </c>
+      <c r="H390" s="12" t="s">
         <v>827</v>
       </c>
     </row>
@@ -13677,10 +13676,10 @@
       <c r="F391" s="10">
         <v>10000</v>
       </c>
-      <c r="G391" s="9">
-        <v>40</v>
-      </c>
-      <c r="H391" s="13" t="s">
+      <c r="G391">
+        <v>400</v>
+      </c>
+      <c r="H391" s="12" t="s">
         <v>828</v>
       </c>
     </row>
@@ -13703,10 +13702,10 @@
       <c r="F392" s="10">
         <v>10000</v>
       </c>
-      <c r="G392" s="9">
-        <v>200</v>
-      </c>
-      <c r="H392" s="13" t="s">
+      <c r="G392">
+        <v>2000</v>
+      </c>
+      <c r="H392" s="12" t="s">
         <v>829</v>
       </c>
     </row>
@@ -13729,10 +13728,10 @@
       <c r="F393" s="10">
         <v>10000</v>
       </c>
-      <c r="G393" s="9">
-        <v>10</v>
-      </c>
-      <c r="H393" s="13" t="s">
+      <c r="G393">
+        <v>100</v>
+      </c>
+      <c r="H393" s="12" t="s">
         <v>830</v>
       </c>
     </row>
@@ -13755,10 +13754,10 @@
       <c r="F394" s="10">
         <v>10000</v>
       </c>
-      <c r="G394" s="9">
-        <v>300</v>
-      </c>
-      <c r="H394" s="13" t="s">
+      <c r="G394">
+        <v>3000</v>
+      </c>
+      <c r="H394" s="12" t="s">
         <v>831</v>
       </c>
     </row>
@@ -13781,10 +13780,10 @@
       <c r="F395" s="10">
         <v>10000</v>
       </c>
-      <c r="G395" s="9">
-        <v>370</v>
-      </c>
-      <c r="H395" s="13" t="s">
+      <c r="G395">
+        <v>3700</v>
+      </c>
+      <c r="H395" s="12" t="s">
         <v>832</v>
       </c>
     </row>
@@ -13807,10 +13806,10 @@
       <c r="F396" s="10">
         <v>10000</v>
       </c>
-      <c r="G396" s="9">
-        <v>370</v>
-      </c>
-      <c r="H396" s="13" t="s">
+      <c r="G396">
+        <v>3700</v>
+      </c>
+      <c r="H396" s="12" t="s">
         <v>833</v>
       </c>
     </row>
@@ -13833,10 +13832,10 @@
       <c r="F397" s="10">
         <v>10000</v>
       </c>
-      <c r="G397" s="9">
-        <v>10</v>
-      </c>
-      <c r="H397" s="13" t="s">
+      <c r="G397">
+        <v>100</v>
+      </c>
+      <c r="H397" s="12" t="s">
         <v>834</v>
       </c>
     </row>
@@ -13859,10 +13858,10 @@
       <c r="F398" s="10">
         <v>10000</v>
       </c>
-      <c r="G398" s="9">
-        <v>8</v>
-      </c>
-      <c r="H398" s="13" t="s">
+      <c r="G398">
+        <v>80</v>
+      </c>
+      <c r="H398" s="12" t="s">
         <v>835</v>
       </c>
     </row>
@@ -13885,10 +13884,10 @@
       <c r="F399" s="10">
         <v>10000</v>
       </c>
-      <c r="G399" s="9">
-        <v>300</v>
-      </c>
-      <c r="H399" s="13" t="s">
+      <c r="G399">
+        <v>3000</v>
+      </c>
+      <c r="H399" s="12" t="s">
         <v>836</v>
       </c>
     </row>
@@ -13911,10 +13910,10 @@
       <c r="F400" s="10">
         <v>10000</v>
       </c>
-      <c r="G400" s="9">
-        <v>10</v>
-      </c>
-      <c r="H400" s="13" t="s">
+      <c r="G400">
+        <v>100</v>
+      </c>
+      <c r="H400" s="12" t="s">
         <v>837</v>
       </c>
     </row>
@@ -13937,10 +13936,10 @@
       <c r="F401" s="10">
         <v>10000</v>
       </c>
-      <c r="G401" s="9">
-        <v>50</v>
-      </c>
-      <c r="H401" s="13" t="s">
+      <c r="G401">
+        <v>500</v>
+      </c>
+      <c r="H401" s="12" t="s">
         <v>838</v>
       </c>
     </row>
@@ -13963,10 +13962,10 @@
       <c r="F402" s="10">
         <v>10000</v>
       </c>
-      <c r="G402" s="9">
-        <v>63</v>
-      </c>
-      <c r="H402" s="13" t="s">
+      <c r="G402">
+        <v>630</v>
+      </c>
+      <c r="H402" s="12" t="s">
         <v>839</v>
       </c>
     </row>
@@ -13989,10 +13988,10 @@
       <c r="F403" s="10">
         <v>10000</v>
       </c>
-      <c r="G403" s="9">
-        <v>100</v>
-      </c>
-      <c r="H403" s="13" t="s">
+      <c r="G403">
+        <v>1000</v>
+      </c>
+      <c r="H403" s="12" t="s">
         <v>840</v>
       </c>
     </row>
@@ -14015,10 +14014,10 @@
       <c r="F404" s="10">
         <v>10000</v>
       </c>
-      <c r="G404" s="9">
-        <v>50</v>
-      </c>
-      <c r="H404" s="13" t="s">
+      <c r="G404">
+        <v>500</v>
+      </c>
+      <c r="H404" s="12" t="s">
         <v>841</v>
       </c>
     </row>
@@ -14041,10 +14040,10 @@
       <c r="F405" s="10">
         <v>10000</v>
       </c>
-      <c r="G405" s="9">
-        <v>5</v>
-      </c>
-      <c r="H405" s="13" t="s">
+      <c r="G405">
+        <v>50</v>
+      </c>
+      <c r="H405" s="12" t="s">
         <v>842</v>
       </c>
     </row>
@@ -14067,10 +14066,10 @@
       <c r="F406" s="10">
         <v>10000</v>
       </c>
-      <c r="G406" s="9">
-        <v>20</v>
-      </c>
-      <c r="H406" s="13" t="s">
+      <c r="G406">
+        <v>200</v>
+      </c>
+      <c r="H406" s="12" t="s">
         <v>843</v>
       </c>
     </row>
@@ -14093,10 +14092,10 @@
       <c r="F407" s="10">
         <v>10000</v>
       </c>
-      <c r="G407" s="9">
-        <v>110</v>
-      </c>
-      <c r="H407" s="13" t="s">
+      <c r="G407">
+        <v>1100</v>
+      </c>
+      <c r="H407" s="12" t="s">
         <v>844</v>
       </c>
     </row>
@@ -14119,10 +14118,10 @@
       <c r="F408" s="10">
         <v>10000</v>
       </c>
-      <c r="G408" s="9">
-        <v>55</v>
-      </c>
-      <c r="H408" s="13" t="s">
+      <c r="G408">
+        <v>550</v>
+      </c>
+      <c r="H408" s="12" t="s">
         <v>845</v>
       </c>
     </row>
@@ -14145,10 +14144,10 @@
       <c r="F409" s="10">
         <v>10000</v>
       </c>
-      <c r="G409" s="9">
-        <v>80</v>
-      </c>
-      <c r="H409" s="13" t="s">
+      <c r="G409">
+        <v>800</v>
+      </c>
+      <c r="H409" s="12" t="s">
         <v>846</v>
       </c>
     </row>
@@ -14171,10 +14170,10 @@
       <c r="F410" s="10">
         <v>10000</v>
       </c>
-      <c r="G410" s="9">
-        <v>40</v>
-      </c>
-      <c r="H410" s="13" t="s">
+      <c r="G410">
+        <v>400</v>
+      </c>
+      <c r="H410" s="12" t="s">
         <v>847</v>
       </c>
     </row>
@@ -14197,10 +14196,10 @@
       <c r="F411" s="10">
         <v>10000</v>
       </c>
-      <c r="G411" s="9">
-        <v>200</v>
-      </c>
-      <c r="H411" s="13" t="s">
+      <c r="G411">
+        <v>2000</v>
+      </c>
+      <c r="H411" s="12" t="s">
         <v>848</v>
       </c>
     </row>
@@ -14223,10 +14222,10 @@
       <c r="F412" s="10">
         <v>10000</v>
       </c>
-      <c r="G412" s="12">
-        <v>2000</v>
-      </c>
-      <c r="H412" s="13" t="s">
+      <c r="G412">
+        <v>20000</v>
+      </c>
+      <c r="H412" s="12" t="s">
         <v>849</v>
       </c>
     </row>
@@ -14249,10 +14248,10 @@
       <c r="F413" s="10">
         <v>10000</v>
       </c>
-      <c r="G413" s="9">
-        <v>50</v>
-      </c>
-      <c r="H413" s="13" t="s">
+      <c r="G413">
+        <v>500</v>
+      </c>
+      <c r="H413" s="12" t="s">
         <v>850</v>
       </c>
     </row>
@@ -14275,10 +14274,10 @@
       <c r="F414" s="10">
         <v>10000</v>
       </c>
-      <c r="G414" s="9">
-        <v>170</v>
-      </c>
-      <c r="H414" s="13" t="s">
+      <c r="G414">
+        <v>1700</v>
+      </c>
+      <c r="H414" s="12" t="s">
         <v>851</v>
       </c>
     </row>
@@ -14301,10 +14300,10 @@
       <c r="F415" s="10">
         <v>10000</v>
       </c>
-      <c r="G415" s="9">
-        <v>200</v>
-      </c>
-      <c r="H415" s="13" t="s">
+      <c r="G415">
+        <v>2000</v>
+      </c>
+      <c r="H415" s="12" t="s">
         <v>852</v>
       </c>
     </row>
@@ -14327,10 +14326,10 @@
       <c r="F416" s="10">
         <v>10000</v>
       </c>
-      <c r="G416" s="9">
-        <v>40</v>
-      </c>
-      <c r="H416" s="13" t="s">
+      <c r="G416">
+        <v>400</v>
+      </c>
+      <c r="H416" s="12" t="s">
         <v>853</v>
       </c>
     </row>
@@ -14353,10 +14352,10 @@
       <c r="F417" s="10">
         <v>10000</v>
       </c>
-      <c r="G417" s="9">
-        <v>91</v>
-      </c>
-      <c r="H417" s="13" t="s">
+      <c r="G417">
+        <v>910</v>
+      </c>
+      <c r="H417" s="12" t="s">
         <v>854</v>
       </c>
     </row>
@@ -14379,10 +14378,10 @@
       <c r="F418" s="10">
         <v>10000</v>
       </c>
-      <c r="G418" s="9">
-        <v>70</v>
-      </c>
-      <c r="H418" s="13" t="s">
+      <c r="G418">
+        <v>700</v>
+      </c>
+      <c r="H418" s="12" t="s">
         <v>855</v>
       </c>
     </row>
@@ -14405,10 +14404,10 @@
       <c r="F419" s="10">
         <v>10000</v>
       </c>
-      <c r="G419" s="9">
-        <v>91</v>
-      </c>
-      <c r="H419" s="13" t="s">
+      <c r="G419">
+        <v>910</v>
+      </c>
+      <c r="H419" s="12" t="s">
         <v>856</v>
       </c>
     </row>
@@ -14431,10 +14430,10 @@
       <c r="F420" s="10">
         <v>10000</v>
       </c>
-      <c r="G420" s="9">
-        <v>91</v>
-      </c>
-      <c r="H420" s="13" t="s">
+      <c r="G420">
+        <v>910</v>
+      </c>
+      <c r="H420" s="12" t="s">
         <v>857</v>
       </c>
     </row>
@@ -14457,10 +14456,10 @@
       <c r="F421" s="10">
         <v>10000</v>
       </c>
-      <c r="G421" s="9">
-        <v>91</v>
-      </c>
-      <c r="H421" s="13" t="s">
+      <c r="G421">
+        <v>910</v>
+      </c>
+      <c r="H421" s="12" t="s">
         <v>858</v>
       </c>
     </row>
@@ -14483,10 +14482,10 @@
       <c r="F422" s="10">
         <v>10000</v>
       </c>
-      <c r="G422" s="9">
-        <v>10</v>
-      </c>
-      <c r="H422" s="13" t="s">
+      <c r="G422">
+        <v>100</v>
+      </c>
+      <c r="H422" s="12" t="s">
         <v>859</v>
       </c>
     </row>
@@ -14509,10 +14508,10 @@
       <c r="F423" s="10">
         <v>10000</v>
       </c>
-      <c r="G423" s="9">
-        <v>5</v>
-      </c>
-      <c r="H423" s="13" t="s">
+      <c r="G423">
+        <v>50</v>
+      </c>
+      <c r="H423" s="12" t="s">
         <v>860</v>
       </c>
     </row>
@@ -14535,10 +14534,10 @@
       <c r="F424" s="10">
         <v>10000</v>
       </c>
-      <c r="G424" s="9">
-        <v>10</v>
-      </c>
-      <c r="H424" s="13" t="s">
+      <c r="G424">
+        <v>100</v>
+      </c>
+      <c r="H424" s="12" t="s">
         <v>861</v>
       </c>
     </row>
@@ -14561,10 +14560,10 @@
       <c r="F425" s="10">
         <v>10000</v>
       </c>
-      <c r="G425" s="9">
-        <v>25</v>
-      </c>
-      <c r="H425" s="13" t="s">
+      <c r="G425">
+        <v>250</v>
+      </c>
+      <c r="H425" s="12" t="s">
         <v>862</v>
       </c>
     </row>
@@ -14587,10 +14586,10 @@
       <c r="F426" s="10">
         <v>10000</v>
       </c>
-      <c r="G426" s="9">
-        <v>2</v>
-      </c>
-      <c r="H426" s="13" t="s">
+      <c r="G426">
+        <v>20</v>
+      </c>
+      <c r="H426" s="12" t="s">
         <v>863</v>
       </c>
     </row>
@@ -14613,10 +14612,10 @@
       <c r="F427" s="10">
         <v>10000</v>
       </c>
-      <c r="G427" s="9">
-        <v>60</v>
-      </c>
-      <c r="H427" s="13" t="s">
+      <c r="G427">
+        <v>600</v>
+      </c>
+      <c r="H427" s="12" t="s">
         <v>864</v>
       </c>
     </row>
